--- a/assets/ChartBuilder/public/Data/Backups/Catalyst/CPE/cpe.xlsx
+++ b/assets/ChartBuilder/public/Data/Backups/Catalyst/CPE/cpe.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jacob\Dropbox (Catalyst Funds)\Marketing Team Files\Marketing Materials\AutoCharts&amp;Tables\Backup Files\Catalyst\CPE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\Marketing Team Files\Marketing Materials\AutoCharts&amp;Tables\Backup Files\Catalyst\CPE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D71F924-78C1-41BA-A78D-9B52769ADF88}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A733880-2925-49BE-9618-2DE65A24C4C9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="909" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="909" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CPE Fact Sheet Backup" sheetId="1" r:id="rId1"/>
@@ -31,6 +31,7 @@
     <externalReference r:id="rId14"/>
     <externalReference r:id="rId15"/>
     <externalReference r:id="rId16"/>
+    <externalReference r:id="rId17"/>
   </externalReferences>
   <definedNames>
     <definedName name="__FDS_HYPERLINK_TOGGLE_STATE__" hidden="1">"ON"</definedName>
@@ -61,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="189">
   <si>
     <t>Date</t>
   </si>
@@ -265,15 +266,6 @@
     <t>US BANK MMDA - USBGFS5</t>
   </si>
   <si>
-    <t>880770102</t>
-  </si>
-  <si>
-    <t>TER</t>
-  </si>
-  <si>
-    <t>Teradyne Inc</t>
-  </si>
-  <si>
     <t>482480100</t>
   </si>
   <si>
@@ -304,42 +296,18 @@
     <t>Year</t>
   </si>
   <si>
-    <t>DocuSign Inc</t>
-  </si>
-  <si>
     <t>Amazon.com Inc</t>
   </si>
   <si>
     <t>#N/A Field Not Applicable</t>
   </si>
   <si>
-    <t>64110W102</t>
-  </si>
-  <si>
-    <t>NTES</t>
-  </si>
-  <si>
-    <t>256163106</t>
-  </si>
-  <si>
-    <t>DOCU</t>
-  </si>
-  <si>
     <t>023135106</t>
   </si>
   <si>
     <t>AMZN</t>
   </si>
   <si>
-    <t>64110L106</t>
-  </si>
-  <si>
-    <t>NFLX</t>
-  </si>
-  <si>
-    <t>Netflix Inc</t>
-  </si>
-  <si>
     <t>23918K108</t>
   </si>
   <si>
@@ -406,24 +374,6 @@
     <t>Target Corp</t>
   </si>
   <si>
-    <t>L8681T102</t>
-  </si>
-  <si>
-    <t>SPOT</t>
-  </si>
-  <si>
-    <t>548661107</t>
-  </si>
-  <si>
-    <t>LOW</t>
-  </si>
-  <si>
-    <t>874054109</t>
-  </si>
-  <si>
-    <t>TTWO</t>
-  </si>
-  <si>
     <t>TOTAL - COMMON STOCKS</t>
   </si>
   <si>
@@ -466,15 +416,6 @@
     <t>PCAR</t>
   </si>
   <si>
-    <t>PACCAR Inc.</t>
-  </si>
-  <si>
-    <t>Take-Two Interactive Software Inc.</t>
-  </si>
-  <si>
-    <t>Spotify Technology S.A.</t>
-  </si>
-  <si>
     <t>773903109</t>
   </si>
   <si>
@@ -484,54 +425,27 @@
     <t>Rockwell Automation Inc.</t>
   </si>
   <si>
-    <t>G47567105</t>
-  </si>
-  <si>
-    <t>INFO</t>
-  </si>
-  <si>
-    <t>IHS Markit Ltd.</t>
-  </si>
-  <si>
     <t>12008R107</t>
   </si>
   <si>
     <t>BLDR</t>
   </si>
   <si>
-    <t>Builders FirstSource Inc.</t>
-  </si>
-  <si>
     <t>DaVita Inc.</t>
   </si>
   <si>
     <t>JD.com Inc.</t>
   </si>
   <si>
-    <t>NetEase Inc.</t>
-  </si>
-  <si>
     <t>UnitedHealth Group Inc</t>
   </si>
   <si>
     <t>KLA Corp</t>
   </si>
   <si>
-    <t>Zendesk Inc</t>
-  </si>
-  <si>
     <t>Pinterest Inc</t>
   </si>
   <si>
-    <t>$41.3B</t>
-  </si>
-  <si>
-    <t>$204.4B</t>
-  </si>
-  <si>
-    <t>As of Date: 12/31/2020</t>
-  </si>
-  <si>
     <t>98936J101</t>
   </si>
   <si>
@@ -550,30 +464,6 @@
     <t>FCX</t>
   </si>
   <si>
-    <t>Freeport-McMoRan Inc.</t>
-  </si>
-  <si>
-    <t>G6674U108</t>
-  </si>
-  <si>
-    <t>NVCR</t>
-  </si>
-  <si>
-    <t>Novocure Ltd.</t>
-  </si>
-  <si>
-    <t>Lowe's Companies Inc.</t>
-  </si>
-  <si>
-    <t>90138F102</t>
-  </si>
-  <si>
-    <t>TWLO</t>
-  </si>
-  <si>
-    <t>Twilio Inc.</t>
-  </si>
-  <si>
     <t>00287Y109</t>
   </si>
   <si>
@@ -583,15 +473,6 @@
     <t>AbbVie Inc.</t>
   </si>
   <si>
-    <t>760759100</t>
-  </si>
-  <si>
-    <t>RSG</t>
-  </si>
-  <si>
-    <t>Republic Services Inc.</t>
-  </si>
-  <si>
     <t>05352A100</t>
   </si>
   <si>
@@ -607,7 +488,148 @@
     <t>INFY</t>
   </si>
   <si>
-    <t>Infosys Ltd.</t>
+    <t>2021 YTD</t>
+  </si>
+  <si>
+    <t>Freeport-McMoRan Inc</t>
+  </si>
+  <si>
+    <t>Infosys Ltd</t>
+  </si>
+  <si>
+    <t>Builders FirstSource Inc</t>
+  </si>
+  <si>
+    <t>PACCAR Inc</t>
+  </si>
+  <si>
+    <t>$31.9B</t>
+  </si>
+  <si>
+    <t>$185.5B</t>
+  </si>
+  <si>
+    <t>As of Date: 3/31/2021</t>
+  </si>
+  <si>
+    <t>20030N101</t>
+  </si>
+  <si>
+    <t>CMCSA</t>
+  </si>
+  <si>
+    <t>Comcast Corporation</t>
+  </si>
+  <si>
+    <t>74762E102</t>
+  </si>
+  <si>
+    <t>PWR</t>
+  </si>
+  <si>
+    <t>Quanta Services Inc.</t>
+  </si>
+  <si>
+    <t>Zendesk Inc.</t>
+  </si>
+  <si>
+    <t>02005N100</t>
+  </si>
+  <si>
+    <t>ALLY</t>
+  </si>
+  <si>
+    <t>Ally Financial Inc.</t>
+  </si>
+  <si>
+    <t>617446448</t>
+  </si>
+  <si>
+    <t>MS</t>
+  </si>
+  <si>
+    <t>Morgan Stanley</t>
+  </si>
+  <si>
+    <t>682189105</t>
+  </si>
+  <si>
+    <t>ON</t>
+  </si>
+  <si>
+    <t>ON Semiconductor Corporation</t>
+  </si>
+  <si>
+    <t>G7945M107</t>
+  </si>
+  <si>
+    <t>STX</t>
+  </si>
+  <si>
+    <t>Seagate Technology plc</t>
+  </si>
+  <si>
+    <t>876030107</t>
+  </si>
+  <si>
+    <t>TPR</t>
+  </si>
+  <si>
+    <t>Tapestry Inc.</t>
+  </si>
+  <si>
+    <t>H84989104</t>
+  </si>
+  <si>
+    <t>TEL</t>
+  </si>
+  <si>
+    <t>TE Connectivity Ltd.</t>
+  </si>
+  <si>
+    <t>50212V100</t>
+  </si>
+  <si>
+    <t>LPLA</t>
+  </si>
+  <si>
+    <t>LPL Financial Holdings Inc.</t>
+  </si>
+  <si>
+    <t>316773100</t>
+  </si>
+  <si>
+    <t>FITB</t>
+  </si>
+  <si>
+    <t>Fifth Third Bancorp</t>
+  </si>
+  <si>
+    <t>57164Y107</t>
+  </si>
+  <si>
+    <t>VAC</t>
+  </si>
+  <si>
+    <t>Marriott Vacations Worldwide Corporation</t>
+  </si>
+  <si>
+    <t>G6095L109</t>
+  </si>
+  <si>
+    <t>APTV</t>
+  </si>
+  <si>
+    <t>Aptiv plc</t>
+  </si>
+  <si>
+    <t>012653101</t>
+  </si>
+  <si>
+    <t>ALB</t>
+  </si>
+  <si>
+    <t>Albemarle Corporation</t>
   </si>
 </sst>
 </file>
@@ -1636,15 +1658,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1656,6 +1669,15 @@
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -1783,7 +1805,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'[1]CPE Fact Sheet Backup'!$J$17:$N$17</c:f>
+              <c:f>'[2]CPE Fact Sheet Backup'!$J$17:$N$17</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -1807,7 +1829,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'[1]CPE Fact Sheet Backup'!$J$18:$N$18</c:f>
+              <c:f>'[2]CPE Fact Sheet Backup'!$J$18:$N$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1910,7 +1932,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'[1]CPE Fact Sheet Backup'!$J$17:$N$17</c:f>
+              <c:f>'[2]CPE Fact Sheet Backup'!$J$17:$N$17</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -1934,7 +1956,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'[1]CPE Fact Sheet Backup'!$J$20:$N$20</c:f>
+              <c:f>'[2]CPE Fact Sheet Backup'!$J$20:$N$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -2222,7 +2244,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'[2]CPE Fact Sheet Backup'!$J$17:$N$17</c:f>
+              <c:f>'[3]CPE Fact Sheet Backup'!$J$17:$N$17</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -2246,7 +2268,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'[2]CPE Fact Sheet Backup'!$J$18:$N$18</c:f>
+              <c:f>'[3]CPE Fact Sheet Backup'!$J$18:$N$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -2349,7 +2371,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'[2]CPE Fact Sheet Backup'!$J$17:$N$17</c:f>
+              <c:f>'[3]CPE Fact Sheet Backup'!$J$17:$N$17</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -2373,7 +2395,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'[2]CPE Fact Sheet Backup'!$J$20:$N$20</c:f>
+              <c:f>'[3]CPE Fact Sheet Backup'!$J$20:$N$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -2661,7 +2683,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'[3]CPE Fact Sheet Backup'!$J$17:$N$17</c:f>
+              <c:f>'[4]CPE Fact Sheet Backup'!$J$17:$N$17</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -2685,7 +2707,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'[3]CPE Fact Sheet Backup'!$J$18:$N$18</c:f>
+              <c:f>'[4]CPE Fact Sheet Backup'!$J$18:$N$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -2788,7 +2810,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'[3]CPE Fact Sheet Backup'!$J$17:$N$17</c:f>
+              <c:f>'[4]CPE Fact Sheet Backup'!$J$17:$N$17</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -2812,7 +2834,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'[3]CPE Fact Sheet Backup'!$J$20:$N$20</c:f>
+              <c:f>'[4]CPE Fact Sheet Backup'!$J$20:$N$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -3100,7 +3122,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'[4]CPE Fact Sheet Backup'!$J$17:$N$17</c:f>
+              <c:f>'[5]CPE Fact Sheet Backup'!$J$17:$N$17</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -3124,7 +3146,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'[4]CPE Fact Sheet Backup'!$J$18:$N$18</c:f>
+              <c:f>'[5]CPE Fact Sheet Backup'!$J$18:$N$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -3227,7 +3249,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'[4]CPE Fact Sheet Backup'!$J$17:$N$17</c:f>
+              <c:f>'[5]CPE Fact Sheet Backup'!$J$17:$N$17</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -3251,7 +3273,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'[4]CPE Fact Sheet Backup'!$J$20:$N$20</c:f>
+              <c:f>'[5]CPE Fact Sheet Backup'!$J$20:$N$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -3539,7 +3561,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'[5]CPE Fact Sheet Backup'!$J$17:$N$17</c:f>
+              <c:f>'[6]CPE Fact Sheet Backup'!$J$17:$N$17</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -3563,9 +3585,9 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'[5]CPE Fact Sheet Backup'!$J$18:$N$18</c:f>
+              <c:f>'[6]CPE Fact Sheet Backup'!$J$18:$N$18</c:f>
               <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>20.995856306290882</c:v>
@@ -3666,7 +3688,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'[5]CPE Fact Sheet Backup'!$J$17:$N$17</c:f>
+              <c:f>'[6]CPE Fact Sheet Backup'!$J$17:$N$17</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -3690,9 +3712,9 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'[5]CPE Fact Sheet Backup'!$J$20:$N$20</c:f>
+              <c:f>'[6]CPE Fact Sheet Backup'!$J$20:$N$20</c:f>
               <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>18.398826898926846</c:v>
@@ -3784,6 +3806,445 @@
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="40"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="3175" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="3175">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="50000"/>
+                <a:lumOff val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="Univers LT Std 47 Cn Lt" panose="020B0406020202040204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="903653464"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>CPEAX</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="010066"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Univers LT Std 57 Cn" panose="020B0506020202050204" pitchFamily="34" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'[1]CPE Fact Sheet Backup'!$J$17:$N$17</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>YTD</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1 Year</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3 Years</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5 Years</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Since
+ Inception*</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'[1]CPE Fact Sheet Backup'!$J$18:$N$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>4.2454432242733375E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>47.611292073832786</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.0951705528335314</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>13.289570721229115</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>14.586167887579183</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-03B2-4E85-9F4E-B0D609EF5CC1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>S&amp;P 500 TR Index</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="F79646"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Univers LT Std 57 Cn" panose="020B0506020202050204" pitchFamily="34" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'[1]CPE Fact Sheet Backup'!$J$17:$N$17</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>YTD</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1 Year</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3 Years</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5 Years</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Since
+ Inception*</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'[1]CPE Fact Sheet Backup'!$J$20:$N$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>6.1748728952811804</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>56.351628330676377</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16.778498637956641</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16.294038412866563</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15.57</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-03B2-4E85-9F4E-B0D609EF5CC1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="903653464"/>
+        <c:axId val="903655104"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="903653464"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="low"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="3175" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="50000"/>
+                <a:lumOff val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="Univers LT Std 57 Cn" panose="020B0506020202050204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="903655104"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="903655104"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="60"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -4082,6 +4543,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -6095,6 +6596,509 @@
 </file>
 
 <file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -6789,6 +7793,44 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>52108</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>31335</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>561388</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>48741</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Chart 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D10A96ED-17E5-4717-B8F6-8AA57EE93A7B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -6798,21 +7840,21 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>151086</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>104148</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>106680</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>2248</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2">
+        <xdr:cNvPr id="6" name="Picture 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FE35E2BA-C534-471B-94F6-DBB87443328C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D91998ED-C102-4FAB-BC40-DF0E061D2ABB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6828,96 +7870,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="403860"/>
-          <a:ext cx="10514286" cy="4820928"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>365760</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>11018</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4BE1A960-54BE-49C3-BACE-20CA9A9D0AAA}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
           <a:off x="0" y="548640"/>
-          <a:ext cx="11948160" cy="6046058"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>289560</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>73542</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Picture 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E4B2E59E-6428-4D72-8FA8-57BB4EA8C40B}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="548640"/>
-          <a:ext cx="9433560" cy="5925702"/>
+          <a:ext cx="8641080" cy="5305768"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7053,10 +8007,216 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1181100</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>485775</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 0">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{130B22C8-3BD0-4451-82AA-5AE332995172}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="6621780" y="0"/>
+          <a:ext cx="1805940" cy="478155"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1181100</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>485775</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 0">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{78D256BB-6A8B-4B0E-8A01-31EEFB23FDFE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="6621780" y="0"/>
+          <a:ext cx="624840" cy="478155"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="CPE Fact Sheet Backup"/>
+      <sheetName val="SP500"/>
+      <sheetName val="CPE"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="17">
+          <cell r="J17" t="str">
+            <v>YTD</v>
+          </cell>
+          <cell r="K17" t="str">
+            <v>1 Year</v>
+          </cell>
+          <cell r="L17" t="str">
+            <v>3 Years</v>
+          </cell>
+          <cell r="M17" t="str">
+            <v>5 Years</v>
+          </cell>
+          <cell r="N17" t="str">
+            <v>Since
+ Inception*</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="J18">
+            <v>4.2454432242733375E-2</v>
+          </cell>
+          <cell r="K18">
+            <v>47.611292073832786</v>
+          </cell>
+          <cell r="L18">
+            <v>9.0951705528335314</v>
+          </cell>
+          <cell r="M18">
+            <v>13.289570721229115</v>
+          </cell>
+          <cell r="N18">
+            <v>14.586167887579183</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="J20">
+            <v>6.1748728952811804</v>
+          </cell>
+          <cell r="K20">
+            <v>56.351628330676377</v>
+          </cell>
+          <cell r="L20">
+            <v>16.778498637956641</v>
+          </cell>
+          <cell r="M20">
+            <v>16.294038412866563</v>
+          </cell>
+          <cell r="N20">
+            <v>15.57</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2">
+        <row r="5">
+          <cell r="K5">
+            <v>185534.54731111781</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="J6">
+            <v>25.873173393590061</v>
+          </cell>
+          <cell r="K6">
+            <v>31936.417332000001</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -7126,7 +8286,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -7202,7 +8362,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink4.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -7272,7 +8432,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink5.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -7348,7 +8508,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink6.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -7416,14 +8576,6 @@
         <row r="5">
           <cell r="K5">
             <v>204237.05233065964</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="J6">
-            <v>29.766505036959249</v>
-          </cell>
-          <cell r="K6">
-            <v>41322.357337000001</v>
           </cell>
         </row>
       </sheetData>
@@ -7729,37 +8881,39 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA166"/>
+  <dimension ref="A1:AA169"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.88671875" style="88" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.5546875" style="133" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="10.33203125" style="138" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.88671875" style="134" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.33203125" style="138" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.6640625" style="138"/>
-    <col min="8" max="8" width="8.6640625" style="88"/>
-    <col min="9" max="9" width="26.88671875" style="88" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.88671875" style="88" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.6640625" style="138" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="24.5546875" style="138" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="17.109375" style="138" customWidth="1"/>
-    <col min="14" max="14" width="12.88671875" style="88" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.88671875" style="88" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="8.44140625" style="88" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.85546875" style="88" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.5703125" style="133" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="10.28515625" style="138" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.85546875" style="134" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.28515625" style="138" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.7109375" style="138"/>
+    <col min="8" max="8" width="8.7109375" style="88"/>
+    <col min="9" max="9" width="26.85546875" style="88" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.85546875" style="88" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.7109375" style="138" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="24.5703125" style="138" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17.140625" style="138" customWidth="1"/>
+    <col min="14" max="14" width="12.85546875" style="88" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.85546875" style="88" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.42578125" style="88" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="8" style="88" customWidth="1"/>
-    <col min="18" max="18" width="9.6640625" style="88" bestFit="1" customWidth="1"/>
-    <col min="19" max="21" width="8.6640625" style="88"/>
-    <col min="22" max="22" width="18.33203125" style="88" customWidth="1"/>
-    <col min="23" max="26" width="8.6640625" style="88"/>
-    <col min="27" max="27" width="10.6640625" style="88" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="8.6640625" style="88"/>
+    <col min="18" max="18" width="9.7109375" style="88" bestFit="1" customWidth="1"/>
+    <col min="19" max="21" width="8.7109375" style="88"/>
+    <col min="22" max="22" width="18.28515625" style="88" customWidth="1"/>
+    <col min="23" max="26" width="8.7109375" style="88"/>
+    <col min="27" max="27" width="10.7109375" style="88" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="8.7109375" style="88"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="25.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:27" ht="25.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -7785,10 +8939,10 @@
         <v>5</v>
       </c>
       <c r="J1" s="89">
-        <v>44196</v>
-      </c>
-    </row>
-    <row r="2" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>44286</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="90">
         <v>40899</v>
       </c>
@@ -7803,11 +8957,11 @@
       </c>
       <c r="J2" s="94"/>
       <c r="K2" s="135">
-        <v>7.2300000000000001E-4</v>
+        <v>1.7699999999999999E-4</v>
       </c>
       <c r="L2" s="6"/>
     </row>
-    <row r="3" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="90">
         <v>40908</v>
       </c>
@@ -7837,11 +8991,11 @@
         <v>7</v>
       </c>
       <c r="K3" s="96">
-        <f>COUNTA(C2:C202)-1+0.28</f>
-        <v>108.28</v>
-      </c>
-    </row>
-    <row r="4" spans="1:27" ht="14.85" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+        <f>COUNTA(C2:C205)-1+0.28</f>
+        <v>111.28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27" ht="14.85" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="90">
         <v>40939</v>
       </c>
@@ -7890,7 +9044,7 @@
       </c>
       <c r="Z4" s="99"/>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A5" s="90">
         <v>40968</v>
       </c>
@@ -7930,40 +9084,40 @@
         <v>9</v>
       </c>
       <c r="O5" s="101">
-        <v>43830</v>
+        <v>44196</v>
       </c>
       <c r="P5" s="102">
-        <f t="shared" ref="P5:P10" si="2">SUMIF($A$2:$A$151,$O5,$B$2:$B$151)</f>
-        <v>29201</v>
+        <f t="shared" ref="P5:P10" si="2">SUMIF($A$2:$A$154,$O5,$B$2:$B$154)</f>
+        <v>35332</v>
       </c>
       <c r="Q5" s="95">
         <f>P10/P5-1</f>
-        <v>0.20995856306290883</v>
+        <v>4.2454432242733375E-4</v>
       </c>
       <c r="R5" s="103">
-        <f t="shared" ref="R5:R10" si="3">SUMIF($A$2:$A$151,$O5,$E$2:$E$151)</f>
-        <v>30452.848615478015</v>
+        <f t="shared" ref="R5:R10" si="3">SUMIF($A$2:$A$154,$O5,$E$2:$E$154)</f>
+        <v>36055.815518032054</v>
       </c>
       <c r="S5" s="104">
         <f>R10/R5-1</f>
-        <v>0.18398826898926846</v>
+        <v>6.1748728952811804E-2</v>
       </c>
       <c r="U5" s="100"/>
       <c r="V5" s="90">
         <v>40908</v>
       </c>
       <c r="W5" s="105">
-        <f t="shared" ref="W5:W14" si="4">SUMIF($A$2:$A$151,$V5,$B$2:$B$151)</f>
+        <f t="shared" ref="W5:W15" si="4">SUMIF($A$2:$A$154,$V5,$B$2:$B$154)</f>
         <v>9975</v>
       </c>
       <c r="X5" s="106"/>
       <c r="Y5" s="103">
-        <f t="shared" ref="Y5:Y14" si="5">SUMIF($A$2:$A$151,$V5,$E$2:$E$151)</f>
+        <f t="shared" ref="Y5:Y15" si="5">SUMIF($A$2:$A$154,$V5,$E$2:$E$154)</f>
         <v>10032.07</v>
       </c>
       <c r="Z5" s="104"/>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A6" s="90">
         <v>40999</v>
       </c>
@@ -7990,39 +9144,39 @@
         <v>0</v>
       </c>
       <c r="I6" s="107" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="J6" s="108"/>
       <c r="K6" s="11">
-        <f>STDEV(C3:C151)*SQRT(12)</f>
-        <v>0.14556880338882663</v>
+        <f>STDEV(C3:C154)*SQRT(12)</f>
+        <v>0.14430897217143129</v>
       </c>
       <c r="L6" s="12">
-        <f>STDEV(F3:F151)*SQRT(12)</f>
-        <v>0.13232435547324634</v>
+        <f>STDEV(F3:F154)*SQRT(12)</f>
+        <v>0.131229957987651</v>
       </c>
       <c r="N6" s="100" t="s">
         <v>10</v>
       </c>
       <c r="O6" s="90">
         <f>EOMONTH(J1,-12)</f>
-        <v>43830</v>
+        <v>43921</v>
       </c>
       <c r="P6" s="102">
         <f t="shared" si="2"/>
-        <v>29201</v>
+        <v>23946</v>
       </c>
       <c r="Q6" s="95">
         <f>P10/P6-1</f>
-        <v>0.20995856306290883</v>
+        <v>0.47611292073832789</v>
       </c>
       <c r="R6" s="103">
         <f t="shared" si="3"/>
-        <v>30452.848615478015</v>
+        <v>24484.693064188948</v>
       </c>
       <c r="S6" s="104">
         <f>R10/R6-1</f>
-        <v>0.18398826898926846</v>
+        <v>0.56351628330676373</v>
       </c>
       <c r="U6" s="100">
         <v>2012</v>
@@ -8046,7 +9200,7 @@
         <v>0.16003223804274347</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A7" s="90">
         <v>41029</v>
       </c>
@@ -8073,39 +9227,39 @@
         <v>-6.2739902989709991E-3</v>
       </c>
       <c r="I7" s="107" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="J7" s="108"/>
       <c r="K7" s="13">
         <f>(K14-$K$2)/K6</f>
-        <v>1.0264241649125525</v>
+        <v>1.0095330642555354</v>
       </c>
       <c r="L7" s="14">
         <f>(L14-$K$2)/L6</f>
-        <v>1.1487157620839001</v>
+        <v>1.1855847445316652</v>
       </c>
       <c r="N7" s="100" t="s">
         <v>58</v>
       </c>
       <c r="O7" s="90">
         <f>EOMONTH(J1,-60)</f>
-        <v>42369</v>
+        <v>42460</v>
       </c>
       <c r="P7" s="102">
         <f t="shared" si="2"/>
-        <v>20013</v>
+        <v>18941</v>
       </c>
       <c r="Q7" s="95">
         <f>POWER(P10/P7,12/60)-1</f>
-        <v>0.12039511158632443</v>
+        <v>0.13289570721229116</v>
       </c>
       <c r="R7" s="103">
         <f t="shared" si="3"/>
-        <v>17758.047334340012</v>
+        <v>17997.401797965682</v>
       </c>
       <c r="S7" s="104">
         <f>POWER(R10/R7,12/60)-1</f>
-        <v>0.15216856682869984</v>
+        <v>0.16294038412866563</v>
       </c>
       <c r="U7" s="100">
         <v>2013</v>
@@ -8118,7 +9272,7 @@
         <v>15383</v>
       </c>
       <c r="X7" s="106">
-        <f t="shared" ref="X7:X14" si="6">W7/W6-1</f>
+        <f t="shared" ref="X7:X15" si="6">W7/W6-1</f>
         <v>0.36871607794287753</v>
       </c>
       <c r="Y7" s="103">
@@ -8126,11 +9280,11 @@
         <v>15406.741721076092</v>
       </c>
       <c r="Z7" s="104">
-        <f t="shared" ref="Z7:Z14" si="7">Y7/Y6-1</f>
+        <f t="shared" ref="Z7:Z15" si="7">Y7/Y6-1</f>
         <v>0.32388478062960235</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A8" s="90">
         <v>41060</v>
       </c>
@@ -8157,12 +9311,12 @@
         <v>-6.599826385317617E-2</v>
       </c>
       <c r="I8" s="107" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="J8" s="108"/>
       <c r="K8" s="15">
         <f>((K14-K2)-K9*(L14-K2))*100</f>
-        <v>0.39632799970825972</v>
+        <v>-0.11817082842821847</v>
       </c>
       <c r="L8" s="16"/>
       <c r="N8" s="100" t="s">
@@ -8170,23 +9324,23 @@
       </c>
       <c r="O8" s="90">
         <f>EOMONTH(J1,-36)</f>
-        <v>43100</v>
+        <v>43190</v>
       </c>
       <c r="P8" s="102">
         <f t="shared" si="2"/>
-        <v>27385</v>
+        <v>27223</v>
       </c>
       <c r="Q8" s="95">
         <f>POWER(P10/P8,12/36)-1</f>
-        <v>8.864218391973222E-2</v>
+        <v>9.0951705528335314E-2</v>
       </c>
       <c r="R8" s="103">
         <f t="shared" si="3"/>
-        <v>24222.430087542994</v>
+        <v>24038.557904944129</v>
       </c>
       <c r="S8" s="104">
         <f>POWER(R10/R8,12/36)-1</f>
-        <v>0.14178904188562003</v>
+        <v>0.1677849863795664</v>
       </c>
       <c r="U8" s="100">
         <v>2014</v>
@@ -8211,7 +9365,7 @@
         <v>0.13688363157085193</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A9" s="90">
         <v>41090</v>
       </c>
@@ -8238,12 +9392,12 @@
         <v>-2.7515047291487484E-2</v>
       </c>
       <c r="I9" s="107" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="J9" s="108"/>
       <c r="K9" s="13">
-        <f>COVAR(C3:C111,F3:F111)/VAR(F3:F111)</f>
-        <v>0.95690208586765968</v>
+        <f>COVAR(C3:C114,F3:F114)/VAR(F3:F114)</f>
+        <v>0.94396701576160591</v>
       </c>
       <c r="L9" s="14"/>
       <c r="M9" s="17"/>
@@ -8260,7 +9414,7 @@
       </c>
       <c r="Q9" s="110">
         <f>POWER(P10/P9,12/K3)-1</f>
-        <v>0.15013833745569594</v>
+        <v>0.14586167887579182</v>
       </c>
       <c r="R9" s="103">
         <f t="shared" si="3"/>
@@ -8268,7 +9422,7 @@
       </c>
       <c r="S9" s="111">
         <f>POWER(R10/R9,12/K3)-1</f>
-        <v>0.15272607283971107</v>
+        <v>0.15576123621569038</v>
       </c>
       <c r="U9" s="100">
         <v>2015</v>
@@ -8293,7 +9447,7 @@
         <v>1.3837599218981866E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="90">
         <v>41121</v>
       </c>
@@ -8320,12 +9474,12 @@
         <v>-1.4008483257702617E-2</v>
       </c>
       <c r="I10" s="107" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="J10" s="108"/>
       <c r="K10" s="18">
-        <f>RSQ(C3:C111,F3:F111)</f>
-        <v>0.77069659105194677</v>
+        <f>RSQ(C3:C114,F3:F114)</f>
+        <v>0.75021032879547878</v>
       </c>
       <c r="L10" s="16"/>
       <c r="N10" s="112" t="s">
@@ -8333,16 +9487,16 @@
       </c>
       <c r="O10" s="113">
         <f>J1</f>
-        <v>44196</v>
+        <v>44286</v>
       </c>
       <c r="P10" s="114">
         <f t="shared" si="2"/>
-        <v>35332</v>
+        <v>35347</v>
       </c>
       <c r="Q10" s="114"/>
       <c r="R10" s="115">
         <f t="shared" si="3"/>
-        <v>36055.815518032054</v>
+        <v>38282.216297627601</v>
       </c>
       <c r="S10" s="116"/>
       <c r="U10" s="100">
@@ -8368,7 +9522,7 @@
         <v>0.11959912078710477</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A11" s="90">
         <v>41152</v>
       </c>
@@ -8395,15 +9549,15 @@
         <v>0</v>
       </c>
       <c r="I11" s="100" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="K11" s="19">
         <f>K15/$K$3</f>
-        <v>0.67417805688954557</v>
+        <v>0.66498921639108555</v>
       </c>
       <c r="L11" s="20">
         <f>L15/$K$3</f>
-        <v>0.73882526782415958</v>
+        <v>0.73687994248741917</v>
       </c>
       <c r="U11" s="100">
         <v>2017</v>
@@ -8428,7 +9582,7 @@
         <v>0.21831601482707308</v>
       </c>
     </row>
-    <row r="12" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="90">
         <v>41182</v>
       </c>
@@ -8455,15 +9609,15 @@
         <v>0</v>
       </c>
       <c r="I12" s="112" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="J12" s="117"/>
       <c r="K12" s="21">
-        <f>MIN(D3:D202)</f>
+        <f>MIN(D3:D205)</f>
         <v>-0.2284692463833489</v>
       </c>
       <c r="L12" s="22">
-        <f>MIN(G3:G151)</f>
+        <f>MIN(G3:G154)</f>
         <v>-0.19598020620821929</v>
       </c>
       <c r="U12" s="100">
@@ -8488,10 +9642,10 @@
         <v>-4.3842417452558236E-2</v>
       </c>
       <c r="AA12" s="62" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.3">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A13" s="90">
         <v>41213</v>
       </c>
@@ -8523,11 +9677,11 @@
       <c r="J13" s="98"/>
       <c r="K13" s="119">
         <f>(P10-$P$9)/P9</f>
-        <v>2.5331999999999999</v>
+        <v>2.5347</v>
       </c>
       <c r="L13" s="120">
         <f>(R10-$R$9)/R9</f>
-        <v>2.6055815518032053</v>
+        <v>2.8282216297627603</v>
       </c>
       <c r="U13" s="100">
         <v>2019</v>
@@ -8552,7 +9706,7 @@
         <v>0.314863709868344</v>
       </c>
     </row>
-    <row r="14" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A14" s="90">
         <v>41243</v>
       </c>
@@ -8583,37 +9737,36 @@
       </c>
       <c r="K14" s="95">
         <f>(1+K13)^(12/K3)-1</f>
-        <v>0.15013833745569594</v>
+        <v>0.14586167887579182</v>
       </c>
       <c r="L14" s="104">
         <f>(1+L13)^(12/K3)-1</f>
-        <v>0.15272607283971107</v>
-      </c>
-      <c r="U14" s="71">
+        <v>0.15576123621569038</v>
+      </c>
+      <c r="U14" s="100">
         <v>2020</v>
       </c>
-      <c r="V14" s="113">
-        <f>J1</f>
+      <c r="V14" s="90">
         <v>44196</v>
       </c>
-      <c r="W14" s="114">
+      <c r="W14" s="105">
         <f t="shared" si="4"/>
         <v>35332</v>
       </c>
-      <c r="X14" s="121">
-        <f t="shared" si="6"/>
+      <c r="X14" s="106">
+        <f>W14/W13-1</f>
         <v>0.20995856306290883</v>
       </c>
-      <c r="Y14" s="115">
+      <c r="Y14" s="103">
         <f t="shared" si="5"/>
         <v>36055.815518032054</v>
       </c>
-      <c r="Z14" s="122">
+      <c r="Z14" s="104">
         <f t="shared" si="7"/>
         <v>0.18398826898926846</v>
       </c>
     </row>
-    <row r="15" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="90">
         <v>41274</v>
       </c>
@@ -8644,15 +9797,38 @@
       </c>
       <c r="J15" s="117"/>
       <c r="K15" s="123">
-        <f>COUNTIF(C3:C202,"&gt;0")</f>
-        <v>73</v>
+        <f>COUNTIF(C3:C205,"&gt;0")</f>
+        <v>74</v>
       </c>
       <c r="L15" s="124">
-        <f>COUNTIF(F3:F202,"&gt;0")</f>
-        <v>80</v>
-      </c>
-    </row>
-    <row r="16" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <f>COUNTIF(F3:F205,"&gt;0")</f>
+        <v>82</v>
+      </c>
+      <c r="U15" s="71" t="s">
+        <v>141</v>
+      </c>
+      <c r="V15" s="113">
+        <f>J1</f>
+        <v>44286</v>
+      </c>
+      <c r="W15" s="114">
+        <f t="shared" si="4"/>
+        <v>35347</v>
+      </c>
+      <c r="X15" s="121">
+        <f t="shared" si="6"/>
+        <v>4.2454432242733375E-4</v>
+      </c>
+      <c r="Y15" s="115">
+        <f t="shared" si="5"/>
+        <v>38282.216297627601</v>
+      </c>
+      <c r="Z15" s="122">
+        <f t="shared" si="7"/>
+        <v>6.1748728952811804E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="90">
         <v>41305</v>
       </c>
@@ -8679,7 +9855,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:14" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:14" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A17" s="90">
         <v>41333</v>
       </c>
@@ -8724,7 +9900,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="90">
         <v>41364</v>
       </c>
@@ -8755,26 +9931,26 @@
       </c>
       <c r="J18" s="27">
         <f>Q5*100</f>
-        <v>20.995856306290882</v>
+        <v>4.2454432242733375E-2</v>
       </c>
       <c r="K18" s="27">
         <f>Q6*100</f>
-        <v>20.995856306290882</v>
+        <v>47.611292073832786</v>
       </c>
       <c r="L18" s="27">
         <f>Q8*100</f>
-        <v>8.8642183919732211</v>
+        <v>9.0951705528335314</v>
       </c>
       <c r="M18" s="27">
         <f>Q7*100</f>
-        <v>12.039511158632443</v>
+        <v>13.289570721229115</v>
       </c>
       <c r="N18" s="52">
         <f>Q9*100</f>
-        <v>15.013833745569594</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+        <v>14.586167887579183</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="90">
         <v>41394</v>
       </c>
@@ -8804,22 +9980,22 @@
         <v>48</v>
       </c>
       <c r="J19" s="29">
-        <v>20.079999999999998</v>
+        <v>-0.14000000000000001</v>
       </c>
       <c r="K19" s="29">
-        <v>20.079999999999998</v>
+        <v>46.53</v>
       </c>
       <c r="L19" s="29">
-        <v>8.0500000000000007</v>
+        <v>8.2899999999999991</v>
       </c>
       <c r="M19" s="29">
-        <v>11.21</v>
+        <v>12.44</v>
       </c>
       <c r="N19" s="30">
-        <v>14.15</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+        <v>13.73</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="90">
         <v>41425</v>
       </c>
@@ -8850,25 +10026,25 @@
       </c>
       <c r="J20" s="32">
         <f>S5*100</f>
-        <v>18.398826898926846</v>
+        <v>6.1748728952811804</v>
       </c>
       <c r="K20" s="32">
         <f>S6*100</f>
-        <v>18.398826898926846</v>
+        <v>56.351628330676377</v>
       </c>
       <c r="L20" s="32">
         <f>S8*100</f>
-        <v>14.178904188562003</v>
+        <v>16.778498637956641</v>
       </c>
       <c r="M20" s="32">
         <f>S7*100</f>
-        <v>15.216856682869984</v>
+        <v>16.294038412866563</v>
       </c>
       <c r="N20" s="136">
-        <v>15.27</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+        <v>15.57</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="90">
         <v>41455</v>
       </c>
@@ -8898,22 +10074,22 @@
         <v>49</v>
       </c>
       <c r="J21" s="29">
-        <v>14.04</v>
+        <v>-5.71</v>
       </c>
       <c r="K21" s="29">
-        <v>14.04</v>
+        <v>39.130000000000003</v>
       </c>
       <c r="L21" s="29">
-        <v>6.74</v>
+        <v>6.96</v>
       </c>
       <c r="M21" s="29">
-        <v>10.72</v>
+        <v>11.96</v>
       </c>
       <c r="N21" s="30">
-        <v>14.26</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+        <v>13.86</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="90">
         <v>41486</v>
       </c>
@@ -8943,22 +10119,22 @@
         <v>64</v>
       </c>
       <c r="J22" s="29">
-        <v>21.32</v>
+        <v>0.12</v>
       </c>
       <c r="K22" s="29">
-        <v>21.32</v>
+        <v>48.03</v>
       </c>
       <c r="L22" s="29">
-        <v>9.1300000000000008</v>
+        <v>9.3699999999999992</v>
       </c>
       <c r="M22" s="29">
-        <v>12.32</v>
+        <v>13.57</v>
       </c>
       <c r="N22" s="30">
-        <v>12.35</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>11.9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="90">
         <v>41517</v>
       </c>
@@ -8989,25 +10165,25 @@
       </c>
       <c r="J23" s="69">
         <f>J20</f>
-        <v>18.398826898926846</v>
+        <v>6.1748728952811804</v>
       </c>
       <c r="K23" s="69">
         <f t="shared" ref="K23:L23" si="8">K20</f>
-        <v>18.398826898926846</v>
+        <v>56.351628330676377</v>
       </c>
       <c r="L23" s="69">
         <f t="shared" si="8"/>
-        <v>14.178904188562003</v>
+        <v>16.778498637956641</v>
       </c>
       <c r="M23" s="69">
         <f>M20</f>
-        <v>15.216856682869984</v>
+        <v>16.294038412866563</v>
       </c>
       <c r="N23" s="70">
-        <v>12.74</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+        <v>13.24</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="90">
         <v>41547</v>
       </c>
@@ -9034,7 +10210,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="90">
         <v>41578</v>
       </c>
@@ -9060,12 +10236,12 @@
         <f>(E25-(MAX($E$2:E25)))/(MAX($E$2:E25))</f>
         <v>0</v>
       </c>
-      <c r="I25" s="139"/>
-      <c r="J25" s="139"/>
-      <c r="K25" s="139"/>
-      <c r="L25" s="139"/>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="I25" s="143"/>
+      <c r="J25" s="143"/>
+      <c r="K25" s="143"/>
+      <c r="L25" s="143"/>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" s="90">
         <v>41608</v>
       </c>
@@ -9108,7 +10284,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" s="90">
         <v>41639</v>
       </c>
@@ -9138,19 +10314,19 @@
         <v>19</v>
       </c>
       <c r="J27" s="125">
-        <v>0.33375395804610852</v>
+        <v>0.27325465961085738</v>
       </c>
       <c r="K27" s="126">
-        <v>0.27600000000000002</v>
+        <v>0.26600000000000001</v>
       </c>
       <c r="L27" s="39" t="s">
-        <v>80</v>
+        <v>125</v>
       </c>
       <c r="M27" s="40">
-        <v>7.4383191571442769E-2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
+        <v>5.3999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" s="90">
         <v>41670</v>
       </c>
@@ -9177,22 +10353,22 @@
         <v>-3.4576048305128247E-2</v>
       </c>
       <c r="I28" s="38" t="s">
-        <v>62</v>
+        <v>22</v>
       </c>
       <c r="J28" s="125">
-        <v>0.16861267820507453</v>
+        <v>0.19581406106264432</v>
       </c>
       <c r="K28" s="126">
-        <v>0.108</v>
+        <v>0.124</v>
       </c>
       <c r="L28" s="39" t="s">
-        <v>69</v>
+        <v>92</v>
       </c>
       <c r="M28" s="40">
-        <v>6.5667900958130521E-2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
+        <v>5.1999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" s="90">
         <v>41698</v>
       </c>
@@ -9219,22 +10395,22 @@
         <v>0</v>
       </c>
       <c r="I29" s="38" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="J29" s="125">
-        <v>0.15583654079676887</v>
+        <v>0.14642570893421358</v>
       </c>
       <c r="K29" s="126">
-        <v>0.127</v>
+        <v>8.8999999999999996E-2</v>
       </c>
       <c r="L29" s="39" t="s">
-        <v>103</v>
+        <v>77</v>
       </c>
       <c r="M29" s="40">
-        <v>5.6417088239491549E-2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
+        <v>4.9000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" s="90">
         <v>41729</v>
       </c>
@@ -9261,22 +10437,22 @@
         <v>0</v>
       </c>
       <c r="I30" s="38" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="J30" s="125">
-        <v>0.1553055817130346</v>
+        <v>0.11687665784105528</v>
       </c>
       <c r="K30" s="126">
-        <v>8.4000000000000005E-2</v>
+        <v>0.113</v>
       </c>
       <c r="L30" s="39" t="s">
-        <v>81</v>
+        <v>142</v>
       </c>
       <c r="M30" s="40">
-        <v>5.1994913991952975E-2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
+        <v>4.7E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" s="90">
         <v>41759</v>
       </c>
@@ -9306,19 +10482,19 @@
         <v>23</v>
       </c>
       <c r="J31" s="125">
-        <v>0.14385342418242422</v>
+        <v>0.11374937554775301</v>
       </c>
       <c r="K31" s="126">
-        <v>0.13500000000000001</v>
+        <v>0.13</v>
       </c>
       <c r="L31" s="39" t="s">
-        <v>149</v>
+        <v>124</v>
       </c>
       <c r="M31" s="40">
-        <v>4.2977567904888971E-2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
+        <v>4.4999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" s="90">
         <v>41790</v>
       </c>
@@ -9345,22 +10521,22 @@
         <v>0</v>
       </c>
       <c r="I32" s="38" t="s">
-        <v>25</v>
+        <v>62</v>
       </c>
       <c r="J32" s="125">
-        <v>3.72035959573613E-2</v>
+        <v>7.9455296966912475E-2</v>
       </c>
       <c r="K32" s="126">
-        <v>2.5999999999999999E-2</v>
+        <v>0.109</v>
       </c>
       <c r="L32" s="39" t="s">
-        <v>150</v>
+        <v>102</v>
       </c>
       <c r="M32" s="40">
-        <v>4.2098846265877399E-2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
+        <v>4.3999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" s="90">
         <v>41820</v>
       </c>
@@ -9387,22 +10563,22 @@
         <v>0</v>
       </c>
       <c r="I33" s="38" t="s">
-        <v>54</v>
+        <v>25</v>
       </c>
       <c r="J33" s="125">
-        <v>5.434221099228022E-3</v>
+        <v>6.5173641861064613E-2</v>
       </c>
       <c r="K33" s="126">
-        <v>0</v>
+        <v>2.7E-2</v>
       </c>
       <c r="L33" s="39" t="s">
-        <v>91</v>
+        <v>126</v>
       </c>
       <c r="M33" s="40">
-        <v>4.1563536481616634E-2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
+        <v>4.2000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" s="90">
         <v>41851</v>
       </c>
@@ -9429,22 +10605,22 @@
         <v>-1.3791530834586074E-2</v>
       </c>
       <c r="I34" s="38" t="s">
-        <v>21</v>
+        <v>54</v>
       </c>
       <c r="J34" s="125">
+        <v>9.2505981754993603E-3</v>
+      </c>
+      <c r="K34" s="126">
         <v>0</v>
       </c>
-      <c r="K34" s="126">
-        <v>0.104</v>
-      </c>
       <c r="L34" s="39" t="s">
-        <v>113</v>
+        <v>143</v>
       </c>
       <c r="M34" s="40">
-        <v>3.8999257027258948E-2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
+        <v>4.1000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" s="90">
         <v>41882</v>
       </c>
@@ -9477,16 +10653,16 @@
         <v>0</v>
       </c>
       <c r="K35" s="126">
-        <v>6.5000000000000002E-2</v>
+        <v>6.0999999999999999E-2</v>
       </c>
       <c r="L35" s="39" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="M35" s="40">
-        <v>3.8157331435262412E-2</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
+        <v>3.9E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" s="90">
         <v>41912</v>
       </c>
@@ -9519,16 +10695,16 @@
         <v>0</v>
       </c>
       <c r="K36" s="126">
-        <v>2.4E-2</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="L36" s="39" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="M36" s="40">
-        <v>3.722923574178344E-2</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
+        <v>3.9E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" s="90">
         <v>41943</v>
       </c>
@@ -9561,11 +10737,11 @@
         <v>0</v>
       </c>
       <c r="K37" s="126">
-        <v>2.8000000000000001E-2</v>
+        <v>2.7E-2</v>
       </c>
       <c r="M37" s="127"/>
     </row>
-    <row r="38" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="90">
         <v>41973</v>
       </c>
@@ -9598,12 +10774,12 @@
         <v>0</v>
       </c>
       <c r="K38" s="43">
-        <v>2.3E-2</v>
+        <v>2.8000000000000001E-2</v>
       </c>
       <c r="L38" s="44"/>
       <c r="M38" s="45"/>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" s="90">
         <v>42004</v>
       </c>
@@ -9632,7 +10808,7 @@
       <c r="J39" s="128"/>
       <c r="K39" s="128"/>
     </row>
-    <row r="40" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="90">
         <v>42035</v>
       </c>
@@ -9661,7 +10837,7 @@
       <c r="J40" s="129"/>
       <c r="K40" s="129"/>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" s="90">
         <v>42063</v>
       </c>
@@ -9687,12 +10863,12 @@
         <f>(E41-(MAX($E$2:E41)))/(MAX($E$2:E41))</f>
         <v>0</v>
       </c>
-      <c r="I41" s="140" t="s">
+      <c r="I41" s="144" t="s">
         <v>28</v>
       </c>
-      <c r="J41" s="141"/>
-    </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="J41" s="145"/>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" s="90">
         <v>42094</v>
       </c>
@@ -9719,13 +10895,13 @@
         <v>-1.5815664102710025E-2</v>
       </c>
       <c r="I42" s="46" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="J42" s="47">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43" s="90">
         <v>42124</v>
       </c>
@@ -9752,17 +10928,17 @@
         <v>-6.3728203350903534E-3</v>
       </c>
       <c r="I43" s="46" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="J43" s="47" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="K43" s="96">
-        <f>[5]CPE!K6</f>
-        <v>41322.357337000001</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
+        <f>[1]CPE!K6</f>
+        <v>31936.417332000001</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44" s="90">
         <v>42155</v>
       </c>
@@ -9789,17 +10965,17 @@
         <v>0</v>
       </c>
       <c r="I44" s="46" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="J44" s="47" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="K44" s="96">
-        <f>[5]CPE!K5</f>
-        <v>204237.05233065964</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <f>[1]CPE!K5</f>
+        <v>185534.54731111781</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="90">
         <v>42185</v>
       </c>
@@ -9826,17 +11002,17 @@
         <v>-1.9359166114135084E-2</v>
       </c>
       <c r="I45" s="48" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="J45" s="49">
-        <v>29.77</v>
+        <v>25.87</v>
       </c>
       <c r="K45" s="96">
-        <f>[5]CPE!J6</f>
-        <v>29.766505036959249</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
+        <f>[1]CPE!J6</f>
+        <v>25.873173393590061</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46" s="90">
         <v>42216</v>
       </c>
@@ -9863,7 +11039,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47" s="90">
         <v>42247</v>
       </c>
@@ -9890,7 +11066,7 @@
         <v>-6.0334206068073284E-2</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48" s="90">
         <v>42277</v>
       </c>
@@ -9917,7 +11093,7 @@
         <v>-8.3584886287797089E-2</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="90">
         <v>42308</v>
       </c>
@@ -9944,7 +11120,7 @@
         <v>-6.2811232609477638E-3</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="90">
         <v>42338</v>
       </c>
@@ -9971,7 +11147,7 @@
         <v>-3.3266594794394725E-3</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="90">
         <v>42369</v>
       </c>
@@ -9998,7 +11174,7 @@
         <v>-1.9046152266543558E-2</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="90">
         <v>42400</v>
       </c>
@@ -10025,7 +11201,7 @@
         <v>-6.7724215822167547E-2</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="90">
         <v>42429</v>
       </c>
@@ -10052,7 +11228,7 @@
         <v>-6.8981980594486542E-2</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="90">
         <v>42460</v>
       </c>
@@ -10079,7 +11255,7 @@
         <v>-5.8242209559012268E-3</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="90">
         <v>42490</v>
       </c>
@@ -10106,7 +11282,7 @@
         <v>-1.968786898711411E-3</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="90">
         <v>42521</v>
       </c>
@@ -10133,7 +11309,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="90">
         <v>42551</v>
       </c>
@@ -10160,7 +11336,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="90">
         <v>42582</v>
       </c>
@@ -10187,7 +11363,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="90">
         <v>42613</v>
       </c>
@@ -10214,7 +11390,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="90">
         <v>42643</v>
       </c>
@@ -10241,7 +11417,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="90">
         <v>42674</v>
       </c>
@@ -10268,7 +11444,7 @@
         <v>-1.824045269906303E-2</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="90">
         <v>42704</v>
       </c>
@@ -10295,7 +11471,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="90">
         <v>42735</v>
       </c>
@@ -10322,7 +11498,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="90">
         <v>42766</v>
       </c>
@@ -10349,7 +11525,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="90">
         <v>42794</v>
       </c>
@@ -10376,7 +11552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="90">
         <v>42825</v>
       </c>
@@ -10403,7 +11579,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" s="90">
         <v>42855</v>
       </c>
@@ -10430,7 +11606,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="90">
         <v>42886</v>
       </c>
@@ -10438,7 +11614,7 @@
         <v>23996</v>
       </c>
       <c r="C68" s="95">
-        <f t="shared" ref="C68:C111" si="9">B68/B67-1</f>
+        <f t="shared" ref="C68:C114" si="9">B68/B67-1</f>
         <v>3.466712659537774E-2</v>
       </c>
       <c r="D68" s="95">
@@ -10457,7 +11633,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="90">
         <v>42916</v>
       </c>
@@ -10473,7 +11649,7 @@
         <v>-3.042173695615936E-3</v>
       </c>
       <c r="E69" s="92">
-        <f t="shared" ref="E69:E111" si="10">E68*(1+F69)</f>
+        <f t="shared" ref="E69:E114" si="10">E68*(1+F69)</f>
         <v>21739.203037231255</v>
       </c>
       <c r="F69" s="131">
@@ -10484,7 +11660,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" s="90">
         <v>42947</v>
       </c>
@@ -10511,7 +11687,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" s="90">
         <v>42978</v>
       </c>
@@ -10538,7 +11714,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" s="90">
         <v>43008</v>
       </c>
@@ -10565,7 +11741,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" s="90">
         <f>EOMONTH(A72,1)</f>
         <v>43039</v>
@@ -10593,9 +11769,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" s="90">
-        <f t="shared" ref="A74:A111" si="11">EOMONTH(A73,1)</f>
+        <f t="shared" ref="A74:A114" si="11">EOMONTH(A73,1)</f>
         <v>43069</v>
       </c>
       <c r="B74" s="130">
@@ -10621,7 +11797,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" s="90">
         <f t="shared" si="11"/>
         <v>43100</v>
@@ -10649,7 +11825,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" s="90">
         <f t="shared" si="11"/>
         <v>43131</v>
@@ -10677,7 +11853,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" s="90">
         <f t="shared" si="11"/>
         <v>43159</v>
@@ -10705,7 +11881,7 @@
         <v>-3.6855790289246744E-2</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" s="90">
         <f t="shared" si="11"/>
         <v>43190</v>
@@ -10733,7 +11909,7 @@
         <v>-6.1333173658779092E-2</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" s="90">
         <f t="shared" si="11"/>
         <v>43220</v>
@@ -10761,7 +11937,7 @@
         <v>-5.7731423770823423E-2</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" s="90">
         <f t="shared" si="11"/>
         <v>43251</v>
@@ -10789,7 +11965,7 @@
         <v>-3.5039492234917341E-2</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" s="90">
         <f t="shared" si="11"/>
         <v>43281</v>
@@ -10817,7 +11993,7 @@
         <v>-2.9100687507824755E-2</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" s="90">
         <f t="shared" si="11"/>
         <v>43312</v>
@@ -10845,7 +12021,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" s="90">
         <f t="shared" si="11"/>
         <v>43343</v>
@@ -10873,7 +12049,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" s="90">
         <f t="shared" si="11"/>
         <v>43373</v>
@@ -10901,7 +12077,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" s="90">
         <f t="shared" si="11"/>
         <v>43404</v>
@@ -10929,7 +12105,7 @@
         <v>-6.835004216246604E-2</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" s="90">
         <f t="shared" si="11"/>
         <v>43434</v>
@@ -10957,7 +12133,7 @@
         <v>-4.9364786880012161E-2</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" s="90">
         <f t="shared" si="11"/>
         <v>43465</v>
@@ -10985,7 +12161,7 @@
         <v>-0.13519750425962351</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" s="90">
         <f t="shared" si="11"/>
         <v>43496</v>
@@ -11013,7 +12189,7 @@
         <v>-6.589663776021866E-2</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" s="90">
         <f t="shared" si="11"/>
         <v>43524</v>
@@ -11041,7 +12217,7 @@
         <v>-3.5904029204881747E-2</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" s="90">
         <f t="shared" si="11"/>
         <v>43555</v>
@@ -11069,7 +12245,7 @@
         <v>-1.7170360653917215E-2</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" s="90">
         <f t="shared" si="11"/>
         <v>43585</v>
@@ -11097,7 +12273,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" s="90">
         <f t="shared" si="11"/>
         <v>43616</v>
@@ -11125,7 +12301,7 @@
         <v>-6.3548027506824978E-2</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" s="90">
         <f t="shared" si="11"/>
         <v>43646</v>
@@ -11153,7 +12329,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" s="90">
         <f t="shared" si="11"/>
         <v>43677</v>
@@ -11181,7 +12357,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" s="90">
         <f t="shared" si="11"/>
         <v>43708</v>
@@ -11209,7 +12385,7 @@
         <v>-1.5841366088397337E-2</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" s="90">
         <f t="shared" si="11"/>
         <v>43738</v>
@@ -11237,7 +12413,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" s="90">
         <f t="shared" si="11"/>
         <v>43769</v>
@@ -11265,7 +12441,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" s="90">
         <f t="shared" si="11"/>
         <v>43799</v>
@@ -11293,7 +12469,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" s="90">
         <f t="shared" si="11"/>
         <v>43830</v>
@@ -11321,7 +12497,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" s="90">
         <f t="shared" si="11"/>
         <v>43861</v>
@@ -11349,7 +12525,7 @@
         <v>-3.9215267403869887E-4</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" s="90">
         <f t="shared" si="11"/>
         <v>43890</v>
@@ -11377,7 +12553,7 @@
         <v>-8.2678601128850338E-2</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" s="90">
         <f t="shared" si="11"/>
         <v>43921</v>
@@ -11405,7 +12581,7 @@
         <v>-0.19598020620821929</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" s="90">
         <f t="shared" si="11"/>
         <v>43951</v>
@@ -11433,7 +12609,7 @@
         <v>-9.2909666029354937E-2</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" s="90">
         <f t="shared" si="11"/>
         <v>43982</v>
@@ -11461,7 +12637,7 @@
         <v>-4.9707258791772894E-2</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" s="90">
         <f t="shared" si="11"/>
         <v>44012</v>
@@ -11489,7 +12665,7 @@
         <v>-3.0807636143353891E-2</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" s="90">
         <f t="shared" si="11"/>
         <v>44043</v>
@@ -11517,7 +12693,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" s="90">
         <f t="shared" si="11"/>
         <v>44074</v>
@@ -11545,7 +12721,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" s="90">
         <f t="shared" si="11"/>
         <v>44104</v>
@@ -11573,7 +12749,7 @@
         <v>-3.7997194147475502E-2</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" s="90">
         <f t="shared" si="11"/>
         <v>44135</v>
@@ -11601,7 +12777,7 @@
         <v>-6.3579394642184303E-2</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" s="90">
         <f t="shared" si="11"/>
         <v>44165</v>
@@ -11629,7 +12805,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111" s="90">
         <f t="shared" si="11"/>
         <v>44196</v>
@@ -11657,34 +12833,91 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A112" s="90"/>
-      <c r="B112" s="132"/>
-      <c r="C112" s="50"/>
-      <c r="D112" s="50"/>
-      <c r="E112" s="50"/>
-      <c r="F112" s="50"/>
-      <c r="G112" s="95"/>
-    </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A113" s="90"/>
-      <c r="B113" s="132"/>
-      <c r="C113" s="50"/>
-      <c r="D113" s="50"/>
-      <c r="E113" s="50"/>
-      <c r="F113" s="50"/>
-      <c r="G113" s="95"/>
-    </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A114" s="90"/>
-      <c r="B114" s="132"/>
-      <c r="C114" s="50"/>
-      <c r="D114" s="50"/>
-      <c r="E114" s="50"/>
-      <c r="F114" s="50"/>
-      <c r="G114" s="95"/>
-    </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A112" s="90">
+        <f t="shared" si="11"/>
+        <v>44227</v>
+      </c>
+      <c r="B112" s="130">
+        <v>35154</v>
+      </c>
+      <c r="C112" s="95">
+        <f t="shared" si="9"/>
+        <v>-5.0379259594701686E-3</v>
+      </c>
+      <c r="D112" s="95">
+        <f>(B112-(MAX($B$2:B112)))/(MAX($B$2:B112))</f>
+        <v>-5.0379259594701686E-3</v>
+      </c>
+      <c r="E112" s="92">
+        <f t="shared" si="10"/>
+        <v>35691.788558598259</v>
+      </c>
+      <c r="F112" s="131">
+        <v>-1.009620651214338E-2</v>
+      </c>
+      <c r="G112" s="95">
+        <f>(E112-(MAX($E$2:E112)))/(MAX($E$2:E112))</f>
+        <v>-1.0096206512143368E-2</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A113" s="90">
+        <f t="shared" si="11"/>
+        <v>44255</v>
+      </c>
+      <c r="B113" s="130">
+        <v>36208</v>
+      </c>
+      <c r="C113" s="95">
+        <f t="shared" si="9"/>
+        <v>2.9982363315696592E-2</v>
+      </c>
+      <c r="D113" s="95">
+        <f>(B113-(MAX($B$2:B113)))/(MAX($B$2:B113))</f>
+        <v>0</v>
+      </c>
+      <c r="E113" s="92">
+        <f t="shared" si="10"/>
+        <v>36675.971734601299</v>
+      </c>
+      <c r="F113" s="131">
+        <v>2.7574498666190994E-2</v>
+      </c>
+      <c r="G113" s="95">
+        <f>(E113-(MAX($E$2:E113)))/(MAX($E$2:E113))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A114" s="90">
+        <f t="shared" si="11"/>
+        <v>44286</v>
+      </c>
+      <c r="B114" s="130">
+        <v>35347</v>
+      </c>
+      <c r="C114" s="95">
+        <f t="shared" si="9"/>
+        <v>-2.3779275298276614E-2</v>
+      </c>
+      <c r="D114" s="95">
+        <f>(B114-(MAX($B$2:B114)))/(MAX($B$2:B114))</f>
+        <v>-2.3779275298276625E-2</v>
+      </c>
+      <c r="E114" s="92">
+        <f t="shared" si="10"/>
+        <v>38282.216297627601</v>
+      </c>
+      <c r="F114" s="131">
+        <v>4.3795555701961586E-2</v>
+      </c>
+      <c r="G114" s="95">
+        <f>(E114-(MAX($E$2:E114)))/(MAX($E$2:E114))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115" s="90"/>
       <c r="B115" s="132"/>
       <c r="C115" s="50"/>
@@ -11693,7 +12926,7 @@
       <c r="F115" s="50"/>
       <c r="G115" s="95"/>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" s="90"/>
       <c r="B116" s="132"/>
       <c r="C116" s="50"/>
@@ -11702,7 +12935,7 @@
       <c r="F116" s="50"/>
       <c r="G116" s="95"/>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117" s="90"/>
       <c r="B117" s="132"/>
       <c r="C117" s="50"/>
@@ -11711,7 +12944,7 @@
       <c r="F117" s="50"/>
       <c r="G117" s="95"/>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118" s="90"/>
       <c r="B118" s="132"/>
       <c r="C118" s="50"/>
@@ -11720,34 +12953,34 @@
       <c r="F118" s="50"/>
       <c r="G118" s="95"/>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119" s="90"/>
-      <c r="B119" s="51"/>
+      <c r="B119" s="132"/>
       <c r="C119" s="50"/>
       <c r="D119" s="50"/>
       <c r="E119" s="50"/>
       <c r="F119" s="50"/>
       <c r="G119" s="95"/>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120" s="90"/>
-      <c r="B120" s="51"/>
+      <c r="B120" s="132"/>
       <c r="C120" s="50"/>
       <c r="D120" s="50"/>
       <c r="E120" s="50"/>
       <c r="F120" s="50"/>
       <c r="G120" s="95"/>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121" s="90"/>
-      <c r="B121" s="51"/>
+      <c r="B121" s="132"/>
       <c r="C121" s="50"/>
       <c r="D121" s="50"/>
       <c r="E121" s="50"/>
       <c r="F121" s="50"/>
       <c r="G121" s="95"/>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122" s="90"/>
       <c r="B122" s="51"/>
       <c r="C122" s="50"/>
@@ -11756,7 +12989,7 @@
       <c r="F122" s="50"/>
       <c r="G122" s="95"/>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123" s="90"/>
       <c r="B123" s="51"/>
       <c r="C123" s="50"/>
@@ -11765,7 +12998,7 @@
       <c r="F123" s="50"/>
       <c r="G123" s="95"/>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124" s="90"/>
       <c r="B124" s="51"/>
       <c r="C124" s="50"/>
@@ -11774,7 +13007,7 @@
       <c r="F124" s="50"/>
       <c r="G124" s="95"/>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125" s="90"/>
       <c r="B125" s="51"/>
       <c r="C125" s="50"/>
@@ -11783,7 +13016,7 @@
       <c r="F125" s="50"/>
       <c r="G125" s="95"/>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A126" s="90"/>
       <c r="B126" s="51"/>
       <c r="C126" s="50"/>
@@ -11792,7 +13025,7 @@
       <c r="F126" s="50"/>
       <c r="G126" s="95"/>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127" s="90"/>
       <c r="B127" s="51"/>
       <c r="C127" s="50"/>
@@ -11801,7 +13034,7 @@
       <c r="F127" s="50"/>
       <c r="G127" s="95"/>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A128" s="90"/>
       <c r="B128" s="51"/>
       <c r="C128" s="50"/>
@@ -11810,7 +13043,7 @@
       <c r="F128" s="50"/>
       <c r="G128" s="95"/>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129" s="90"/>
       <c r="B129" s="51"/>
       <c r="C129" s="50"/>
@@ -11819,7 +13052,7 @@
       <c r="F129" s="50"/>
       <c r="G129" s="95"/>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130" s="90"/>
       <c r="B130" s="51"/>
       <c r="C130" s="50"/>
@@ -11828,7 +13061,7 @@
       <c r="F130" s="50"/>
       <c r="G130" s="95"/>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A131" s="90"/>
       <c r="B131" s="51"/>
       <c r="C131" s="50"/>
@@ -11837,7 +13070,7 @@
       <c r="F131" s="50"/>
       <c r="G131" s="95"/>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A132" s="90"/>
       <c r="B132" s="51"/>
       <c r="C132" s="50"/>
@@ -11846,7 +13079,7 @@
       <c r="F132" s="50"/>
       <c r="G132" s="95"/>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133" s="90"/>
       <c r="B133" s="51"/>
       <c r="C133" s="50"/>
@@ -11855,7 +13088,7 @@
       <c r="F133" s="50"/>
       <c r="G133" s="95"/>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A134" s="90"/>
       <c r="B134" s="51"/>
       <c r="C134" s="50"/>
@@ -11864,7 +13097,7 @@
       <c r="F134" s="50"/>
       <c r="G134" s="95"/>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A135" s="90"/>
       <c r="B135" s="51"/>
       <c r="C135" s="50"/>
@@ -11873,7 +13106,7 @@
       <c r="F135" s="50"/>
       <c r="G135" s="95"/>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A136" s="90"/>
       <c r="B136" s="51"/>
       <c r="C136" s="50"/>
@@ -11882,7 +13115,7 @@
       <c r="F136" s="50"/>
       <c r="G136" s="95"/>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A137" s="90"/>
       <c r="B137" s="51"/>
       <c r="C137" s="50"/>
@@ -11891,7 +13124,7 @@
       <c r="F137" s="50"/>
       <c r="G137" s="95"/>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A138" s="90"/>
       <c r="B138" s="51"/>
       <c r="C138" s="50"/>
@@ -11900,7 +13133,7 @@
       <c r="F138" s="50"/>
       <c r="G138" s="95"/>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A139" s="90"/>
       <c r="B139" s="51"/>
       <c r="C139" s="50"/>
@@ -11909,7 +13142,7 @@
       <c r="F139" s="50"/>
       <c r="G139" s="95"/>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A140" s="90"/>
       <c r="B140" s="51"/>
       <c r="C140" s="50"/>
@@ -11918,7 +13151,7 @@
       <c r="F140" s="50"/>
       <c r="G140" s="95"/>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A141" s="90"/>
       <c r="B141" s="51"/>
       <c r="C141" s="50"/>
@@ -11927,7 +13160,7 @@
       <c r="F141" s="50"/>
       <c r="G141" s="95"/>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A142" s="90"/>
       <c r="B142" s="51"/>
       <c r="C142" s="50"/>
@@ -11936,7 +13169,7 @@
       <c r="F142" s="50"/>
       <c r="G142" s="95"/>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A143" s="90"/>
       <c r="B143" s="51"/>
       <c r="C143" s="50"/>
@@ -11945,7 +13178,7 @@
       <c r="F143" s="50"/>
       <c r="G143" s="95"/>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A144" s="90"/>
       <c r="B144" s="51"/>
       <c r="C144" s="50"/>
@@ -11954,7 +13187,7 @@
       <c r="F144" s="50"/>
       <c r="G144" s="95"/>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A145" s="90"/>
       <c r="B145" s="51"/>
       <c r="C145" s="50"/>
@@ -11963,7 +13196,7 @@
       <c r="F145" s="50"/>
       <c r="G145" s="95"/>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A146" s="90"/>
       <c r="B146" s="51"/>
       <c r="C146" s="50"/>
@@ -11972,7 +13205,7 @@
       <c r="F146" s="50"/>
       <c r="G146" s="95"/>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A147" s="90"/>
       <c r="B147" s="51"/>
       <c r="C147" s="50"/>
@@ -11981,7 +13214,7 @@
       <c r="F147" s="50"/>
       <c r="G147" s="95"/>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A148" s="90"/>
       <c r="B148" s="51"/>
       <c r="C148" s="50"/>
@@ -11990,7 +13223,7 @@
       <c r="F148" s="50"/>
       <c r="G148" s="95"/>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A149" s="90"/>
       <c r="B149" s="51"/>
       <c r="C149" s="50"/>
@@ -11999,7 +13232,7 @@
       <c r="F149" s="50"/>
       <c r="G149" s="95"/>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A150" s="90"/>
       <c r="B150" s="51"/>
       <c r="C150" s="50"/>
@@ -12008,7 +13241,7 @@
       <c r="F150" s="50"/>
       <c r="G150" s="95"/>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A151" s="90"/>
       <c r="B151" s="51"/>
       <c r="C151" s="50"/>
@@ -12017,110 +13250,137 @@
       <c r="F151" s="50"/>
       <c r="G151" s="95"/>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A152" s="90"/>
       <c r="B152" s="51"/>
       <c r="C152" s="50"/>
       <c r="D152" s="50"/>
       <c r="E152" s="50"/>
       <c r="F152" s="50"/>
-    </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G152" s="95"/>
+    </row>
+    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A153" s="90"/>
       <c r="B153" s="51"/>
       <c r="C153" s="50"/>
       <c r="D153" s="50"/>
       <c r="E153" s="50"/>
       <c r="F153" s="50"/>
-    </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G153" s="95"/>
+    </row>
+    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A154" s="90"/>
       <c r="B154" s="51"/>
       <c r="C154" s="50"/>
       <c r="D154" s="50"/>
       <c r="E154" s="50"/>
       <c r="F154" s="50"/>
-    </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G154" s="95"/>
+    </row>
+    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B155" s="51"/>
       <c r="C155" s="50"/>
       <c r="D155" s="50"/>
       <c r="E155" s="50"/>
       <c r="F155" s="50"/>
     </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B156" s="51"/>
       <c r="C156" s="50"/>
       <c r="D156" s="50"/>
       <c r="E156" s="50"/>
       <c r="F156" s="50"/>
     </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B157" s="51"/>
       <c r="C157" s="50"/>
       <c r="D157" s="50"/>
       <c r="E157" s="50"/>
       <c r="F157" s="50"/>
     </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B158" s="51"/>
       <c r="C158" s="50"/>
       <c r="D158" s="50"/>
       <c r="E158" s="50"/>
       <c r="F158" s="50"/>
     </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B159" s="51"/>
       <c r="C159" s="50"/>
       <c r="D159" s="50"/>
       <c r="E159" s="50"/>
       <c r="F159" s="50"/>
     </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B160" s="51"/>
       <c r="C160" s="50"/>
       <c r="D160" s="50"/>
       <c r="E160" s="50"/>
       <c r="F160" s="50"/>
     </row>
-    <row r="161" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="161" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B161" s="51"/>
       <c r="C161" s="50"/>
       <c r="D161" s="50"/>
       <c r="E161" s="50"/>
       <c r="F161" s="50"/>
     </row>
-    <row r="162" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="162" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B162" s="51"/>
       <c r="C162" s="50"/>
       <c r="D162" s="50"/>
       <c r="E162" s="50"/>
       <c r="F162" s="50"/>
     </row>
-    <row r="163" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="163" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B163" s="51"/>
       <c r="C163" s="50"/>
       <c r="D163" s="50"/>
       <c r="E163" s="50"/>
       <c r="F163" s="50"/>
     </row>
-    <row r="164" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="164" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B164" s="51"/>
       <c r="C164" s="50"/>
       <c r="D164" s="50"/>
       <c r="E164" s="50"/>
       <c r="F164" s="50"/>
     </row>
-    <row r="165" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="165" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B165" s="51"/>
       <c r="C165" s="50"/>
       <c r="D165" s="50"/>
       <c r="E165" s="50"/>
       <c r="F165" s="50"/>
     </row>
-    <row r="166" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="166" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B166" s="51"/>
       <c r="C166" s="50"/>
       <c r="D166" s="50"/>
       <c r="E166" s="50"/>
       <c r="F166" s="50"/>
+    </row>
+    <row r="167" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B167" s="51"/>
+      <c r="C167" s="50"/>
+      <c r="D167" s="50"/>
+      <c r="E167" s="50"/>
+      <c r="F167" s="50"/>
+    </row>
+    <row r="168" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B168" s="51"/>
+      <c r="C168" s="50"/>
+      <c r="D168" s="50"/>
+      <c r="E168" s="50"/>
+      <c r="F168" s="50"/>
+    </row>
+    <row r="169" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B169" s="51"/>
+      <c r="C169" s="50"/>
+      <c r="D169" s="50"/>
+      <c r="E169" s="50"/>
+      <c r="F169" s="50"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="I29:K39">
@@ -12139,73 +13399,73 @@
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1B2497F-CD16-43A8-A836-78BAD31DF8FA}">
   <sheetPr>
-    <tabColor rgb="FFC00000"/>
+    <tabColor rgb="FFFF0000"/>
   </sheetPr>
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="Q40" sqref="Q40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B1" t="s">
         <v>74</v>
       </c>
-      <c r="B1" t="s">
-        <v>77</v>
-      </c>
       <c r="C1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>125</v>
+        <v>108</v>
       </c>
       <c r="B2">
         <f>'CPE Fact Sheet Backup'!J42</f>
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>126</v>
+        <v>109</v>
       </c>
       <c r="B3" t="str">
         <f>'CPE Fact Sheet Backup'!J43</f>
-        <v>$41.3B</v>
+        <v>$31.9B</v>
       </c>
       <c r="C3">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>127</v>
+        <v>110</v>
       </c>
       <c r="B4" t="str">
         <f>'CPE Fact Sheet Backup'!J44</f>
-        <v>$204.4B</v>
+        <v>$185.5B</v>
       </c>
       <c r="C4">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>128</v>
+        <v>111</v>
       </c>
       <c r="B5">
         <f>'CPE Fact Sheet Backup'!J45</f>
-        <v>29.77</v>
+        <v>25.87</v>
       </c>
       <c r="C5">
         <v>4</v>
@@ -12219,7 +13479,7 @@
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E977A98-FBFC-478D-B2A7-EA0FE673EE79}">
   <sheetPr>
-    <tabColor rgb="FFC00000"/>
+    <tabColor rgb="FFFF0000"/>
   </sheetPr>
   <dimension ref="A1:D4"/>
   <sheetViews>
@@ -12227,33 +13487,33 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="9.109375" style="86"/>
-    <col min="3" max="3" width="10.5546875" style="86" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="86"/>
+    <col min="3" max="3" width="10.5703125" style="86" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B1" s="86" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="86" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>129</v>
+        <v>112</v>
       </c>
       <c r="B2" s="86">
         <f>'CPE Fact Sheet Backup'!K8</f>
-        <v>0.39632799970825972</v>
+        <v>-0.11817082842821847</v>
       </c>
       <c r="C2" s="86">
         <f>'CPE Fact Sheet Backup'!L8</f>
@@ -12263,13 +13523,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>130</v>
+        <v>113</v>
       </c>
       <c r="B3" s="86">
         <f>'CPE Fact Sheet Backup'!K9</f>
-        <v>0.95690208586765968</v>
+        <v>0.94396701576160591</v>
       </c>
       <c r="C3" s="86">
         <f>'CPE Fact Sheet Backup'!L9</f>
@@ -12279,13 +13539,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>131</v>
+        <v>114</v>
       </c>
       <c r="B4" s="86">
         <f>'CPE Fact Sheet Backup'!K10</f>
-        <v>0.77069659105194677</v>
+        <v>0.75021032879547878</v>
       </c>
       <c r="C4" s="86">
         <f>'CPE Fact Sheet Backup'!L10</f>
@@ -12305,24 +13565,24 @@
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="53" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>61</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A1" r:id="rId1" xr:uid="{816A5F10-4BAC-4967-AE55-777768DD50B4}"/>
+    <hyperlink ref="A1" r:id="rId1" xr:uid="{250E1C0F-B07E-4934-82DB-5C590DDBAAD9}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId2"/>
@@ -12334,61 +13594,61 @@
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:Q77"/>
+  <dimension ref="A1:Q49"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozenSplit"/>
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.95" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.88671875" customWidth="1"/>
-    <col min="2" max="2" width="8.44140625" customWidth="1"/>
-    <col min="3" max="3" width="29.109375" customWidth="1"/>
-    <col min="4" max="4" width="15.44140625" customWidth="1"/>
+    <col min="1" max="1" width="19.85546875" customWidth="1"/>
+    <col min="2" max="2" width="8.42578125" customWidth="1"/>
+    <col min="3" max="3" width="29.140625" customWidth="1"/>
+    <col min="4" max="4" width="15.42578125" customWidth="1"/>
     <col min="5" max="5" width="10" customWidth="1"/>
-    <col min="6" max="6" width="13.88671875" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="13.6640625" customWidth="1"/>
-    <col min="9" max="9" width="20.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.109375" customWidth="1"/>
+    <col min="6" max="6" width="13.85546875" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="13.7109375" customWidth="1"/>
+    <col min="9" max="9" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.140625" customWidth="1"/>
     <col min="11" max="11" width="16" customWidth="1"/>
-    <col min="16" max="16" width="24.44140625" customWidth="1"/>
-    <col min="17" max="17" width="9.33203125" customWidth="1"/>
+    <col min="16" max="16" width="24.42578125" customWidth="1"/>
+    <col min="17" max="17" width="9.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="38.1" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="1:17" ht="3" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" ht="38.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:17" ht="3" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="84"/>
       <c r="C3" s="84" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="84"/>
       <c r="C4" s="84" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="84"/>
       <c r="C5" s="84" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="I5" s="54" t="s">
         <v>30</v>
       </c>
       <c r="J5" s="55">
-        <v>197.20337056244699</v>
+        <v>37.080885599069234</v>
       </c>
       <c r="K5" s="55">
-        <v>204237.05233065964</v>
+        <v>185534.54731111781</v>
       </c>
       <c r="P5" s="56"/>
       <c r="Q5" s="56"/>
     </row>
-    <row r="6" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="84"/>
       <c r="C6" s="84" t="s">
         <v>31</v>
@@ -12397,15 +13657,15 @@
         <v>32</v>
       </c>
       <c r="J6" s="55">
-        <v>29.766505036959249</v>
+        <v>25.873173393590061</v>
       </c>
       <c r="K6" s="55">
-        <v>41322.357337000001</v>
+        <v>31936.417332000001</v>
       </c>
       <c r="P6" s="56"/>
       <c r="Q6" s="56"/>
     </row>
-    <row r="7" spans="1:17" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:17" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="72" t="s">
         <v>33</v>
       </c>
@@ -12448,7 +13708,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="8" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:17" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="73" t="s">
         <v>52</v>
       </c>
@@ -12467,9 +13727,9 @@
       <c r="P8" s="56"/>
       <c r="Q8" s="56"/>
     </row>
-    <row r="9" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:17" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="73" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="B9" s="58"/>
       <c r="C9" s="58"/>
@@ -12481,36 +13741,36 @@
       <c r="J9" s="59"/>
       <c r="K9" s="59"/>
       <c r="L9" s="56"/>
-      <c r="M9" s="142"/>
+      <c r="M9" s="139"/>
       <c r="N9" s="60"/>
       <c r="P9" s="56" t="s">
         <v>19</v>
       </c>
-      <c r="Q9" s="143">
-        <v>0.33375395804610852</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="Q9" s="140">
+        <v>0.27325465961085738</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="74" t="s">
-        <v>85</v>
+        <v>67</v>
       </c>
       <c r="B10" s="74" t="s">
-        <v>86</v>
+        <v>68</v>
       </c>
       <c r="C10" s="61" t="s">
-        <v>80</v>
+        <v>125</v>
       </c>
       <c r="D10" s="75">
-        <v>62250</v>
+        <v>27800</v>
       </c>
       <c r="E10" s="76">
-        <v>222.3</v>
+        <v>330.4</v>
       </c>
       <c r="F10" s="77">
-        <v>5066716.07</v>
+        <v>4202085.42</v>
       </c>
       <c r="G10" s="77">
-        <v>13838175</v>
+        <v>9185120</v>
       </c>
       <c r="H10" s="62">
         <v>1</v>
@@ -12518,47 +13778,47 @@
       <c r="I10" s="63" t="s">
         <v>19</v>
       </c>
-      <c r="J10" s="64" t="s">
-        <v>65</v>
+      <c r="J10" s="64">
+        <v>29.715092266393548</v>
       </c>
       <c r="K10" s="64">
-        <v>41322.357337000001</v>
+        <v>52550.241216569993</v>
       </c>
       <c r="L10" s="63"/>
-      <c r="M10" s="144">
-        <v>7.4383191571442769E-2</v>
+      <c r="M10" s="141">
+        <v>5.3646264465351076E-2</v>
       </c>
       <c r="N10" s="65">
-        <v>7.3999999999999996E-2</v>
+        <v>5.3999999999999999E-2</v>
       </c>
       <c r="P10" s="56" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q10" s="143">
-        <v>0.16861267820507453</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+      <c r="Q10" s="140">
+        <v>0.19581406106264432</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="74" t="s">
-        <v>67</v>
+        <v>98</v>
       </c>
       <c r="B11" s="74" t="s">
-        <v>68</v>
+        <v>99</v>
       </c>
       <c r="C11" s="61" t="s">
-        <v>69</v>
+        <v>92</v>
       </c>
       <c r="D11" s="75">
-        <v>101900</v>
+        <v>73158</v>
       </c>
       <c r="E11" s="76">
-        <v>119.89</v>
+        <v>122.15</v>
       </c>
       <c r="F11" s="77">
-        <v>5288449.07</v>
+        <v>5068135.3499999996</v>
       </c>
       <c r="G11" s="77">
-        <v>12216791</v>
+        <v>8936249.6999999993</v>
       </c>
       <c r="H11" s="62">
         <v>2</v>
@@ -12567,142 +13827,142 @@
         <v>19</v>
       </c>
       <c r="J11" s="64">
-        <v>30.151270640471864</v>
+        <v>33.33488085657298</v>
       </c>
       <c r="K11" s="64">
-        <v>19754.001179919997</v>
+        <v>2063926.8434304001</v>
       </c>
       <c r="L11" s="63"/>
-      <c r="M11" s="144">
-        <v>6.5667900958130521E-2</v>
+      <c r="M11" s="141">
+        <v>5.2192722004134315E-2</v>
       </c>
       <c r="N11" s="65">
-        <v>6.6000000000000003E-2</v>
+        <v>5.1999999999999998E-2</v>
       </c>
       <c r="P11" s="56" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q11" s="143">
-        <v>0.15583654079676887</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>24</v>
+      </c>
+      <c r="Q11" s="140">
+        <v>0.14642570893421358</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="74" t="s">
-        <v>109</v>
+        <v>79</v>
       </c>
       <c r="B12" s="74" t="s">
-        <v>110</v>
+        <v>80</v>
       </c>
       <c r="C12" s="61" t="s">
-        <v>103</v>
+        <v>77</v>
       </c>
       <c r="D12" s="75">
-        <v>79100</v>
+        <v>2720</v>
       </c>
       <c r="E12" s="76">
-        <v>132.69</v>
+        <v>3094.08</v>
       </c>
       <c r="F12" s="77">
-        <v>5462076.7199999997</v>
+        <v>5238371.59</v>
       </c>
       <c r="G12" s="77">
-        <v>10495779</v>
+        <v>8415897.5999999996</v>
       </c>
       <c r="H12" s="62">
         <v>3</v>
       </c>
       <c r="I12" s="63" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="J12" s="64">
-        <v>39.602814527132189</v>
+        <v>74.988029686377772</v>
       </c>
       <c r="K12" s="64">
-        <v>2192486.0788921998</v>
+        <v>1577290.66626175</v>
       </c>
       <c r="L12" s="63"/>
-      <c r="M12" s="144">
-        <v>5.6417088239491549E-2</v>
+      <c r="M12" s="141">
+        <v>4.9153573210030291E-2</v>
       </c>
       <c r="N12" s="65">
-        <v>5.6000000000000001E-2</v>
+        <v>4.9000000000000002E-2</v>
       </c>
       <c r="P12" s="56" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q12" s="143">
-        <v>0.1553055817130346</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+      <c r="Q12" s="140">
+        <v>0.11687665784105528</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="74" t="s">
-        <v>87</v>
+        <v>131</v>
       </c>
       <c r="B13" s="74" t="s">
-        <v>88</v>
+        <v>132</v>
       </c>
       <c r="C13" s="61" t="s">
-        <v>81</v>
+        <v>142</v>
       </c>
       <c r="D13" s="75">
-        <v>2970</v>
+        <v>244800</v>
       </c>
       <c r="E13" s="76">
-        <v>3256.93</v>
+        <v>32.93</v>
       </c>
       <c r="F13" s="77">
-        <v>5719839.5899999999</v>
+        <v>4375118.54</v>
       </c>
       <c r="G13" s="77">
-        <v>9673082.0999999996</v>
+        <v>8061264</v>
       </c>
       <c r="H13" s="62">
         <v>4</v>
       </c>
       <c r="I13" s="63" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="J13" s="64">
-        <v>92.893706247712302</v>
+        <v>98.367870354808716</v>
       </c>
       <c r="K13" s="64">
-        <v>1591715.3128545601</v>
+        <v>48917.434158839998</v>
       </c>
       <c r="L13" s="63"/>
-      <c r="M13" s="144">
-        <v>5.1994913991952975E-2</v>
+      <c r="M13" s="141">
+        <v>4.7082313619094131E-2</v>
       </c>
       <c r="N13" s="65">
-        <v>5.1999999999999998E-2</v>
+        <v>4.7E-2</v>
       </c>
       <c r="P13" s="56" t="s">
         <v>23</v>
       </c>
-      <c r="Q13" s="143">
-        <v>0.14385342418242422</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="Q13" s="140">
+        <v>0.11374937554775301</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="74" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="B14" s="74" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="C14" s="61" t="s">
-        <v>149</v>
+        <v>124</v>
       </c>
       <c r="D14" s="75">
-        <v>22800</v>
+        <v>20900</v>
       </c>
       <c r="E14" s="76">
-        <v>350.68</v>
+        <v>372.07</v>
       </c>
       <c r="F14" s="77">
-        <v>6869319.2000000002</v>
+        <v>6332298.9500000002</v>
       </c>
       <c r="G14" s="77">
-        <v>7995504</v>
+        <v>7776263</v>
       </c>
       <c r="H14" s="62">
         <v>5</v>
@@ -12711,94 +13971,94 @@
         <v>23</v>
       </c>
       <c r="J14" s="64">
-        <v>19.963561906546165</v>
+        <v>23.103556213569284</v>
       </c>
       <c r="K14" s="64">
-        <v>329777.43936357601</v>
+        <v>350099.0412714</v>
       </c>
       <c r="L14" s="63"/>
-      <c r="M14" s="144">
-        <v>4.2977567904888971E-2</v>
+      <c r="M14" s="141">
+        <v>4.5417747558020402E-2</v>
       </c>
       <c r="N14" s="65">
-        <v>4.2999999999999997E-2</v>
+        <v>4.4999999999999998E-2</v>
       </c>
       <c r="P14" s="56" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q14" s="143">
-        <v>3.72035959573613E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>62</v>
+      </c>
+      <c r="Q14" s="140">
+        <v>7.9455296966912475E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="74" t="s">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="B15" s="74" t="s">
-        <v>71</v>
+        <v>101</v>
       </c>
       <c r="C15" s="61" t="s">
-        <v>150</v>
+        <v>102</v>
       </c>
       <c r="D15" s="75">
-        <v>30250</v>
+        <v>37900</v>
       </c>
       <c r="E15" s="76">
-        <v>258.91000000000003</v>
+        <v>198.07</v>
       </c>
       <c r="F15" s="77">
-        <v>4550989.63</v>
+        <v>4234814.82</v>
       </c>
       <c r="G15" s="77">
-        <v>7832027.5</v>
+        <v>7506853</v>
       </c>
       <c r="H15" s="62">
         <v>6</v>
       </c>
       <c r="I15" s="63" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="J15" s="64">
-        <v>23.783133024589617</v>
+        <v>21.396920606084279</v>
       </c>
       <c r="K15" s="64">
-        <v>40039.073762740001</v>
+        <v>100201.9075328</v>
       </c>
       <c r="L15" s="63"/>
-      <c r="M15" s="144">
-        <v>4.2098846265877399E-2</v>
+      <c r="M15" s="141">
+        <v>4.3844241701851923E-2</v>
       </c>
       <c r="N15" s="65">
-        <v>4.2000000000000003E-2</v>
+        <v>4.3999999999999997E-2</v>
       </c>
       <c r="P15" s="56" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q15" s="143">
-        <v>5.434221099228022E-3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+      <c r="Q15" s="140">
+        <v>6.5173641861064613E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="74" t="s">
-        <v>89</v>
+        <v>129</v>
       </c>
       <c r="B16" s="74" t="s">
-        <v>90</v>
+        <v>130</v>
       </c>
       <c r="C16" s="61" t="s">
-        <v>91</v>
+        <v>126</v>
       </c>
       <c r="D16" s="75">
-        <v>14300</v>
+        <v>97150</v>
       </c>
       <c r="E16" s="76">
-        <v>540.73</v>
+        <v>74.03</v>
       </c>
       <c r="F16" s="77">
-        <v>5209664.7</v>
+        <v>4849750.91</v>
       </c>
       <c r="G16" s="77">
-        <v>7732439</v>
+        <v>7192014.5</v>
       </c>
       <c r="H16" s="62">
         <v>7</v>
@@ -12806,63 +14066,63 @@
       <c r="I16" s="63" t="s">
         <v>62</v>
       </c>
-      <c r="J16" s="64">
-        <v>69.640325746505439</v>
+      <c r="J16" s="64" t="s">
+        <v>65</v>
       </c>
       <c r="K16" s="64">
-        <v>230563.97877503998</v>
+        <v>48502.474537290007</v>
       </c>
       <c r="L16" s="63"/>
-      <c r="M16" s="144">
-        <v>4.1563536481616634E-2</v>
+      <c r="M16" s="141">
+        <v>4.2005407866814989E-2</v>
       </c>
       <c r="N16" s="65">
         <v>4.2000000000000003E-2</v>
       </c>
       <c r="P16" s="56" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q16" s="143">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>54</v>
+      </c>
+      <c r="Q16" s="140">
+        <v>9.2505981754993603E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="74" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="B17" s="74" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="C17" s="61" t="s">
-        <v>113</v>
+        <v>144</v>
       </c>
       <c r="D17" s="75">
-        <v>41100</v>
+        <v>143800</v>
       </c>
       <c r="E17" s="76">
-        <v>176.53</v>
+        <v>46.37</v>
       </c>
       <c r="F17" s="77">
-        <v>4592385.38</v>
+        <v>4546563</v>
       </c>
       <c r="G17" s="77">
-        <v>7255383</v>
+        <v>6668006</v>
       </c>
       <c r="H17" s="62">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I17" s="63" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="J17" s="64">
-        <v>21.062059211164271</v>
+        <v>15.453495533950688</v>
       </c>
       <c r="K17" s="64">
-        <v>88721.977390970002</v>
+        <v>9799.3118970699998</v>
       </c>
       <c r="L17" s="63"/>
-      <c r="M17" s="144">
-        <v>3.8999257027258948E-2</v>
+      <c r="M17" s="141">
+        <v>3.8944903641166123E-2</v>
       </c>
       <c r="N17" s="65">
         <v>3.9E-2</v>
@@ -12870,551 +14130,549 @@
       <c r="P17" s="56" t="s">
         <v>20</v>
       </c>
-      <c r="Q17" s="143">
+      <c r="Q17" s="140">
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:17" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="74" t="s">
-        <v>156</v>
+        <v>115</v>
       </c>
       <c r="B18" s="74" t="s">
-        <v>157</v>
+        <v>116</v>
       </c>
       <c r="C18" s="61" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="D18" s="75">
-        <v>49600</v>
+        <v>71300</v>
       </c>
       <c r="E18" s="76">
-        <v>143.12</v>
+        <v>92.92</v>
       </c>
       <c r="F18" s="77">
-        <v>5997467.1200000001</v>
+        <v>6192504.0700000003</v>
       </c>
       <c r="G18" s="77">
-        <v>7098752</v>
+        <v>6625196</v>
       </c>
       <c r="H18" s="62">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I18" s="63" t="s">
-        <v>19</v>
-      </c>
-      <c r="J18" s="64" t="s">
-        <v>65</v>
+        <v>24</v>
+      </c>
+      <c r="J18" s="64">
+        <v>24.666843445711361</v>
       </c>
       <c r="K18" s="64">
-        <v>16168.471208149998</v>
+        <v>31936.417332000001</v>
       </c>
       <c r="L18" s="63"/>
-      <c r="M18" s="144">
-        <v>3.8157331435262412E-2</v>
+      <c r="M18" s="141">
+        <v>3.8694869174358756E-2</v>
       </c>
       <c r="N18" s="65">
-        <v>3.7999999999999999E-2</v>
+        <v>3.9E-2</v>
       </c>
       <c r="P18" s="66" t="s">
         <v>50</v>
       </c>
-      <c r="Q18" s="143">
+      <c r="Q18" s="140">
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:17" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="74" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="B19" s="74" t="s">
-        <v>159</v>
-      </c>
-      <c r="C19" s="61" t="s">
-        <v>152</v>
+        <v>150</v>
+      </c>
+      <c r="C19" s="74" t="s">
+        <v>151</v>
       </c>
       <c r="D19" s="75">
-        <v>105100</v>
+        <v>118500</v>
       </c>
       <c r="E19" s="76">
-        <v>65.900000000000006</v>
+        <v>54.11</v>
       </c>
       <c r="F19" s="77">
-        <v>5214076.3499999996</v>
+        <v>6615483.0199999996</v>
       </c>
       <c r="G19" s="77">
-        <v>6926090</v>
-      </c>
-      <c r="H19" s="62">
-        <v>10</v>
-      </c>
-      <c r="I19" s="63" t="s">
+        <v>6412035</v>
+      </c>
+      <c r="H19">
+        <v>11</v>
+      </c>
+      <c r="I19" s="56" t="s">
         <v>62</v>
       </c>
-      <c r="J19" s="64" t="s">
-        <v>65</v>
-      </c>
-      <c r="K19" s="64">
-        <v>41855.851847002203</v>
-      </c>
-      <c r="L19" s="63"/>
-      <c r="M19" s="144">
-        <v>3.722923574178344E-2</v>
-      </c>
-      <c r="N19" s="65">
-        <v>3.6999999999999998E-2</v>
-      </c>
+      <c r="J19" s="59">
+        <v>24.796151836863345</v>
+      </c>
+      <c r="K19" s="59">
+        <v>251042.86150855065</v>
+      </c>
+      <c r="L19" s="56"/>
+      <c r="M19" s="142">
+        <v>3.7449889100097486E-2</v>
+      </c>
+      <c r="N19" s="60"/>
       <c r="P19" s="56" t="s">
         <v>26</v>
       </c>
-      <c r="Q19" s="143">
+      <c r="Q19" s="140">
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:17" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="74" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="B20" s="74" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="C20" s="74" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="D20" s="75">
-        <v>266000</v>
+        <v>69600</v>
       </c>
       <c r="E20" s="76">
-        <v>26.02</v>
+        <v>87.98</v>
       </c>
       <c r="F20" s="77">
-        <v>4749342.45</v>
+        <v>5426661.5999999996</v>
       </c>
       <c r="G20" s="77">
-        <v>6921320</v>
+        <v>6123408</v>
       </c>
       <c r="H20">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I20" s="56" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J20" s="59">
-        <v>2353.1460199745306</v>
+        <v>26.950194950316778</v>
       </c>
       <c r="K20" s="59">
-        <v>39285.562103839999</v>
+        <v>12311.718322860001</v>
       </c>
       <c r="L20" s="56"/>
-      <c r="M20" s="145">
-        <v>3.72035959573613E-2</v>
+      <c r="M20" s="142">
+        <v>3.5764145160569111E-2</v>
       </c>
       <c r="N20" s="60"/>
       <c r="P20" s="56" t="s">
         <v>27</v>
       </c>
-      <c r="Q20" s="143">
+      <c r="Q20" s="140">
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:17" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="74" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="B21" s="74" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="C21" s="74" t="s">
-        <v>135</v>
+        <v>155</v>
       </c>
       <c r="D21" s="75">
-        <v>32400</v>
+        <v>45800</v>
       </c>
       <c r="E21" s="76">
-        <v>207.79</v>
+        <v>132.62</v>
       </c>
       <c r="F21" s="77">
-        <v>4259135.38</v>
+        <v>5561974.96</v>
       </c>
       <c r="G21" s="77">
-        <v>6732396</v>
+        <v>6073996</v>
       </c>
       <c r="H21">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I21" s="56" t="s">
-        <v>62</v>
-      </c>
-      <c r="J21" s="59">
-        <v>47.72620425501939</v>
+        <v>19</v>
+      </c>
+      <c r="J21" s="59" t="s">
+        <v>65</v>
       </c>
       <c r="K21" s="59">
-        <v>23175.131307185002</v>
+        <v>16248.386957979999</v>
       </c>
       <c r="L21" s="56"/>
-      <c r="M21" s="145">
-        <v>3.6188088487305224E-2</v>
+      <c r="M21" s="142">
+        <v>3.5475551302267642E-2</v>
       </c>
       <c r="N21" s="60"/>
       <c r="P21" s="56"/>
       <c r="Q21" s="56"/>
     </row>
-    <row r="22" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:17" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="74" t="s">
-        <v>132</v>
+        <v>156</v>
       </c>
       <c r="B22" s="74" t="s">
-        <v>133</v>
+        <v>157</v>
       </c>
       <c r="C22" s="74" t="s">
-        <v>134</v>
+        <v>158</v>
       </c>
       <c r="D22" s="75">
-        <v>77300</v>
+        <v>130000</v>
       </c>
       <c r="E22" s="76">
-        <v>86.28</v>
+        <v>45.21</v>
       </c>
       <c r="F22" s="77">
-        <v>6709496.4699999997</v>
+        <v>5762333.4000000004</v>
       </c>
       <c r="G22" s="77">
-        <v>6669444</v>
+        <v>5877300</v>
       </c>
       <c r="H22">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I22" s="56" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="J22" s="59">
-        <v>20.681504154486898</v>
+        <v>14.836709508228996</v>
       </c>
       <c r="K22" s="59">
-        <v>29319.200443259997</v>
+        <v>17354.396520575599</v>
       </c>
       <c r="L22" s="56"/>
-      <c r="M22" s="145">
-        <v>3.5849707835535358E-2</v>
+      <c r="M22" s="142">
+        <v>3.4326736084254524E-2</v>
       </c>
       <c r="N22" s="60"/>
       <c r="P22" s="56"/>
       <c r="Q22" s="56"/>
     </row>
-    <row r="23" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:17" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="74" t="s">
-        <v>143</v>
+        <v>159</v>
       </c>
       <c r="B23" s="74" t="s">
-        <v>144</v>
+        <v>160</v>
       </c>
       <c r="C23" s="74" t="s">
-        <v>145</v>
+        <v>161</v>
       </c>
       <c r="D23" s="75">
-        <v>156300</v>
+        <v>75000</v>
       </c>
       <c r="E23" s="76">
-        <v>40.81</v>
+        <v>77.66</v>
       </c>
       <c r="F23" s="77">
-        <v>4929575.5</v>
+        <v>6072240.3600000003</v>
       </c>
       <c r="G23" s="77">
-        <v>6378603</v>
+        <v>5824500</v>
       </c>
       <c r="H23">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I23" s="56" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="J23" s="59">
-        <v>17.760340004678021</v>
+        <v>11.888522217769093</v>
       </c>
       <c r="K23" s="59">
-        <v>4624.9508725100004</v>
+        <v>146312.53755352</v>
       </c>
       <c r="L23" s="56"/>
-      <c r="M23" s="145">
-        <v>3.4286374388760046E-2</v>
+      <c r="M23" s="142">
+        <v>3.4018354401296594E-2</v>
       </c>
       <c r="N23" s="60"/>
       <c r="P23" s="56"/>
       <c r="Q23" s="56"/>
     </row>
-    <row r="24" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:17" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="74" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="B24" s="74" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="C24" s="74" t="s">
-        <v>136</v>
+        <v>119</v>
       </c>
       <c r="D24" s="75">
-        <v>19900</v>
+        <v>21300</v>
       </c>
       <c r="E24" s="76">
-        <v>314.66000000000003</v>
+        <v>265.44</v>
       </c>
       <c r="F24" s="77">
-        <v>3990487.8</v>
+        <v>5036115.8600000003</v>
       </c>
       <c r="G24" s="77">
-        <v>6261734</v>
+        <v>5653872</v>
       </c>
       <c r="H24">
         <v>16</v>
       </c>
       <c r="I24" s="56" t="s">
-        <v>62</v>
-      </c>
-      <c r="J24" s="59" t="s">
-        <v>65</v>
+        <v>24</v>
+      </c>
+      <c r="J24" s="59">
+        <v>31.524277130581641</v>
       </c>
       <c r="K24" s="59">
-        <v>58891.149812689997</v>
+        <v>30522.651409774997</v>
       </c>
       <c r="L24" s="56"/>
-      <c r="M24" s="145">
-        <v>3.3658178169550287E-2</v>
+      <c r="M24" s="142">
+        <v>3.3021790958119593E-2</v>
       </c>
       <c r="N24" s="60"/>
       <c r="P24" s="56"/>
       <c r="Q24" s="56"/>
     </row>
-    <row r="25" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:17" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="74" t="s">
-        <v>140</v>
+        <v>162</v>
       </c>
       <c r="B25" s="74" t="s">
-        <v>141</v>
+        <v>163</v>
       </c>
       <c r="C25" s="74" t="s">
-        <v>142</v>
+        <v>164</v>
       </c>
       <c r="D25" s="75">
-        <v>66200</v>
+        <v>135000</v>
       </c>
       <c r="E25" s="76">
-        <v>89.83</v>
+        <v>41.61</v>
       </c>
       <c r="F25" s="77">
-        <v>5480529.1600000001</v>
+        <v>5509108.9500000002</v>
       </c>
       <c r="G25" s="77">
-        <v>5946746</v>
+        <v>5617350</v>
       </c>
       <c r="H25">
         <v>17</v>
       </c>
       <c r="I25" s="56" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="J25" s="59">
-        <v>80.335314353261765</v>
+        <v>52.511816994561016</v>
       </c>
       <c r="K25" s="59">
-        <v>35921.637398399995</v>
+        <v>17498.767301435</v>
       </c>
       <c r="L25" s="56"/>
-      <c r="M25" s="145">
-        <v>3.1965049361256881E-2</v>
+      <c r="M25" s="142">
+        <v>3.2808481946282671E-2</v>
       </c>
       <c r="N25" s="60"/>
       <c r="P25" s="56"/>
       <c r="Q25" s="56"/>
     </row>
-    <row r="26" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:17" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="74" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B26" s="74" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="C26" s="74" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="D26" s="75">
-        <v>34100</v>
+        <v>65000</v>
       </c>
       <c r="E26" s="76">
-        <v>173.04</v>
+        <v>76.75</v>
       </c>
       <c r="F26" s="77">
-        <v>3933511.39</v>
+        <v>4890421.9000000004</v>
       </c>
       <c r="G26" s="77">
-        <v>5900664</v>
+        <v>4988750</v>
       </c>
       <c r="H26">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I26" s="56" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="J26" s="59">
-        <v>846.19421707956417</v>
+        <v>18.394796962417189</v>
       </c>
       <c r="K26" s="59">
-        <v>16366.644836532902</v>
+        <v>17987.989195680002</v>
       </c>
       <c r="L26" s="56"/>
-      <c r="M26" s="145">
-        <v>3.1717348617914989E-2</v>
+      <c r="M26" s="142">
+        <v>2.9137104561673684E-2</v>
       </c>
       <c r="N26" s="60"/>
       <c r="P26" s="56"/>
       <c r="Q26" s="56"/>
     </row>
-    <row r="27" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:17" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="74" t="s">
-        <v>137</v>
+        <v>168</v>
       </c>
       <c r="B27" s="74" t="s">
-        <v>138</v>
+        <v>169</v>
       </c>
       <c r="C27" s="74" t="s">
-        <v>139</v>
+        <v>170</v>
       </c>
       <c r="D27" s="75">
-        <v>23300</v>
+        <v>119500</v>
       </c>
       <c r="E27" s="76">
-        <v>250.81</v>
+        <v>41.21</v>
       </c>
       <c r="F27" s="77">
-        <v>5504665.0599999996</v>
+        <v>5128880.5</v>
       </c>
       <c r="G27" s="77">
-        <v>5843873</v>
+        <v>4924595</v>
       </c>
       <c r="H27">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I27" s="56" t="s">
-        <v>24</v>
-      </c>
-      <c r="J27" s="59">
-        <v>32.330068075728043</v>
+        <v>22</v>
+      </c>
+      <c r="J27" s="59" t="s">
+        <v>65</v>
       </c>
       <c r="K27" s="59">
-        <v>28525.878184650002</v>
+        <v>11391.363042999999</v>
       </c>
       <c r="L27" s="56"/>
-      <c r="M27" s="145">
-        <v>3.1412084677219496E-2</v>
+      <c r="M27" s="142">
+        <v>2.8762403295193268E-2</v>
       </c>
       <c r="N27" s="60"/>
       <c r="P27" s="56"/>
       <c r="Q27" s="56"/>
     </row>
-    <row r="28" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:17" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="74" t="s">
-        <v>116</v>
+        <v>171</v>
       </c>
       <c r="B28" s="74" t="s">
-        <v>117</v>
+        <v>172</v>
       </c>
       <c r="C28" s="74" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="D28" s="75">
-        <v>36000</v>
+        <v>38000</v>
       </c>
       <c r="E28" s="76">
-        <v>160.51</v>
+        <v>129.11000000000001</v>
       </c>
       <c r="F28" s="77">
-        <v>4901282.42</v>
+        <v>4856966.2</v>
       </c>
       <c r="G28" s="77">
-        <v>5778360</v>
+        <v>4906180</v>
       </c>
       <c r="H28">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I28" s="56" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="J28" s="59">
-        <v>18.537229072497546</v>
+        <v>28.644161104384544</v>
       </c>
       <c r="K28" s="59">
-        <v>117059.80395383999</v>
+        <v>43049.738485260008</v>
       </c>
       <c r="L28" s="56"/>
-      <c r="M28" s="145">
-        <v>3.1059938095071207E-2</v>
+      <c r="M28" s="142">
+        <v>2.8654849342699514E-2</v>
       </c>
       <c r="N28" s="60"/>
       <c r="P28" s="56"/>
       <c r="Q28" s="56"/>
     </row>
-    <row r="29" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:17" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="74" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="B29" s="74" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="C29" s="74" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="D29" s="75">
-        <v>15500</v>
+        <v>30000</v>
       </c>
       <c r="E29" s="76">
-        <v>338.5</v>
+        <v>142.16</v>
       </c>
       <c r="F29" s="77">
-        <v>4621966.08</v>
+        <v>4068204</v>
       </c>
       <c r="G29" s="77">
-        <v>5246750</v>
+        <v>4264800</v>
       </c>
       <c r="H29">
         <v>22</v>
       </c>
       <c r="I29" s="56" t="s">
-        <v>19</v>
-      </c>
-      <c r="J29" s="59" t="s">
-        <v>65</v>
+        <v>21</v>
+      </c>
+      <c r="J29" s="59">
+        <v>24.305694925440118</v>
       </c>
       <c r="K29" s="59">
-        <v>50124.508705920009</v>
+        <v>11500.854651720001</v>
       </c>
       <c r="L29" s="56"/>
-      <c r="M29" s="145">
-        <v>2.8202419060133821E-2</v>
+      <c r="M29" s="142">
+        <v>2.4908829573465484E-2</v>
       </c>
       <c r="N29" s="60"/>
       <c r="P29" s="56"/>
       <c r="Q29" s="56"/>
     </row>
-    <row r="30" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:17" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="74" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="B30" s="74" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="C30" s="74" t="s">
-        <v>146</v>
+        <v>122</v>
       </c>
       <c r="D30" s="75">
-        <v>42200</v>
+        <v>38900</v>
       </c>
       <c r="E30" s="76">
-        <v>117.4</v>
+        <v>107.77</v>
       </c>
       <c r="F30" s="77">
-        <v>2967274.64</v>
+        <v>2735236.57</v>
       </c>
       <c r="G30" s="77">
-        <v>4954280</v>
+        <v>4192253</v>
       </c>
       <c r="H30">
         <v>23</v>
@@ -13423,40 +14681,40 @@
         <v>23</v>
       </c>
       <c r="J30" s="59">
-        <v>14.215850437574744</v>
+        <v>13.451623812139903</v>
       </c>
       <c r="K30" s="59">
-        <v>12967.36</v>
+        <v>11705.800000000001</v>
       </c>
       <c r="L30" s="56"/>
-      <c r="M30" s="145">
-        <v>2.6630329385093587E-2</v>
+      <c r="M30" s="142">
+        <v>2.4485114309193725E-2</v>
       </c>
       <c r="N30" s="60"/>
       <c r="P30" s="56"/>
       <c r="Q30" s="56"/>
     </row>
-    <row r="31" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:17" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="74" t="s">
-        <v>170</v>
+        <v>133</v>
       </c>
       <c r="B31" s="74" t="s">
-        <v>171</v>
+        <v>134</v>
       </c>
       <c r="C31" s="74" t="s">
-        <v>172</v>
+        <v>135</v>
       </c>
       <c r="D31" s="75">
-        <v>41000</v>
+        <v>38200</v>
       </c>
       <c r="E31" s="76">
-        <v>107.15</v>
+        <v>108.22</v>
       </c>
       <c r="F31" s="77">
-        <v>4250683.2</v>
+        <v>3960392.64</v>
       </c>
       <c r="G31" s="77">
-        <v>4393150</v>
+        <v>4134004</v>
       </c>
       <c r="H31">
         <v>24</v>
@@ -13465,441 +14723,491 @@
         <v>23</v>
       </c>
       <c r="J31" s="59">
-        <v>13.786527383972086</v>
+        <v>13.987748820342455</v>
       </c>
       <c r="K31" s="59">
-        <v>185480.69035038</v>
+        <v>191315.62229460001</v>
       </c>
       <c r="L31" s="56"/>
-      <c r="M31" s="145">
-        <v>2.3614133948449401E-2</v>
+      <c r="M31" s="142">
+        <v>2.4144907402932049E-2</v>
       </c>
       <c r="N31" s="60"/>
       <c r="P31" s="56"/>
       <c r="Q31" s="56"/>
     </row>
-    <row r="32" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:17" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="74" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="B32" s="74" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="C32" s="74" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="D32" s="75">
-        <v>42100</v>
+        <v>108000</v>
       </c>
       <c r="E32" s="76">
-        <v>96.3</v>
+        <v>37.450000000000003</v>
       </c>
       <c r="F32" s="77">
-        <v>4279816.1100000003</v>
+        <v>4124984.4</v>
       </c>
       <c r="G32" s="77">
-        <v>4054230</v>
+        <v>4044600</v>
       </c>
       <c r="H32">
         <v>25</v>
       </c>
       <c r="I32" s="56" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="J32" s="59">
-        <v>26.84741519591212</v>
+        <v>18.443690547931759</v>
       </c>
       <c r="K32" s="59">
-        <v>29737.0131105</v>
+        <v>26827.643447989998</v>
       </c>
       <c r="L32" s="56"/>
-      <c r="M32" s="145">
-        <v>2.1792365450262797E-2</v>
+      <c r="M32" s="142">
+        <v>2.3622737782038664E-2</v>
       </c>
       <c r="N32" s="60"/>
       <c r="P32" s="56"/>
       <c r="Q32" s="56"/>
     </row>
-    <row r="33" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:14" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="74" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="B33" s="74" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="C33" s="74" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="D33" s="75">
-        <v>125000</v>
+        <v>23000</v>
       </c>
       <c r="E33" s="76">
-        <v>28.15</v>
+        <v>174.18</v>
       </c>
       <c r="F33" s="77">
-        <v>3443080.63</v>
+        <v>4224713.5999999996</v>
       </c>
       <c r="G33" s="77">
-        <v>3518750</v>
+        <v>4006140</v>
       </c>
       <c r="H33">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I33" s="56" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J33" s="59" t="s">
         <v>65</v>
       </c>
       <c r="K33" s="59">
-        <v>15768.407872769998</v>
+        <v>7183.1638660199997</v>
       </c>
       <c r="L33" s="56"/>
-      <c r="M33" s="145">
-        <v>1.8914044326077264E-2</v>
+      <c r="M33" s="142">
+        <v>2.3398109760702262E-2</v>
       </c>
       <c r="N33" s="60"/>
     </row>
-    <row r="34" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="78" t="s">
-        <v>120</v>
-      </c>
-      <c r="D34" s="79">
-        <v>1486670</v>
-      </c>
-      <c r="E34" s="80"/>
-      <c r="F34" s="81">
-        <v>117991830.12</v>
-      </c>
-      <c r="G34" s="81">
-        <v>169664322.59999999</v>
-      </c>
-      <c r="I34" s="56"/>
-      <c r="J34" s="59"/>
-      <c r="K34" s="59"/>
+    <row r="34" spans="1:14" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="74" t="s">
+        <v>136</v>
+      </c>
+      <c r="B34" s="74" t="s">
+        <v>137</v>
+      </c>
+      <c r="C34" s="74" t="s">
+        <v>138</v>
+      </c>
+      <c r="D34" s="75">
+        <v>116600</v>
+      </c>
+      <c r="E34" s="76">
+        <v>28.93</v>
+      </c>
+      <c r="F34" s="77">
+        <v>3211705.61</v>
+      </c>
+      <c r="G34" s="77">
+        <v>3373238</v>
+      </c>
+      <c r="H34">
+        <v>27</v>
+      </c>
+      <c r="I34" s="56" t="s">
+        <v>23</v>
+      </c>
+      <c r="J34" s="59">
+        <v>56.016801419344354</v>
+      </c>
+      <c r="K34" s="59">
+        <v>16806.763296584999</v>
+      </c>
       <c r="L34" s="56"/>
-      <c r="M34" s="145"/>
+      <c r="M34" s="142">
+        <v>1.9701606277606819E-2</v>
+      </c>
       <c r="N34" s="60"/>
     </row>
-    <row r="35" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="73" t="s">
-        <v>121</v>
-      </c>
-      <c r="B35" s="58"/>
-      <c r="C35" s="58"/>
-      <c r="D35" s="58"/>
-      <c r="E35" s="74"/>
-      <c r="F35" s="74"/>
-      <c r="G35" s="74"/>
-      <c r="I35" s="56"/>
-      <c r="J35" s="59"/>
-      <c r="K35" s="59"/>
+    <row r="35" spans="1:14" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="74" t="s">
+        <v>183</v>
+      </c>
+      <c r="B35" s="74" t="s">
+        <v>184</v>
+      </c>
+      <c r="C35" s="74" t="s">
+        <v>185</v>
+      </c>
+      <c r="D35" s="75">
+        <v>22900</v>
+      </c>
+      <c r="E35" s="76">
+        <v>137.9</v>
+      </c>
+      <c r="F35" s="77">
+        <v>3318089.54</v>
+      </c>
+      <c r="G35" s="77">
+        <v>3157910</v>
+      </c>
+      <c r="H35">
+        <v>28</v>
+      </c>
+      <c r="I35" s="56" t="s">
+        <v>22</v>
+      </c>
+      <c r="J35" s="59">
+        <v>69.97504076385907</v>
+      </c>
+      <c r="K35" s="59">
+        <v>38158.236942664997</v>
+      </c>
       <c r="L35" s="56"/>
-      <c r="M35" s="145"/>
+      <c r="M35" s="142">
+        <v>1.844396970510748E-2</v>
+      </c>
       <c r="N35" s="60"/>
     </row>
-    <row r="36" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:14" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="74" t="s">
-        <v>122</v>
+        <v>186</v>
       </c>
       <c r="B36" s="74" t="s">
+        <v>187</v>
+      </c>
+      <c r="C36" s="74" t="s">
+        <v>188</v>
+      </c>
+      <c r="D36" s="75">
+        <v>21200</v>
+      </c>
+      <c r="E36" s="76">
+        <v>146.11000000000001</v>
+      </c>
+      <c r="F36" s="77">
+        <v>3744681.08</v>
+      </c>
+      <c r="G36" s="77">
+        <v>3097532</v>
+      </c>
+      <c r="H36">
+        <v>29</v>
+      </c>
+      <c r="I36" s="56" t="s">
+        <v>25</v>
+      </c>
+      <c r="J36" s="59">
+        <v>35.073707524809976</v>
+      </c>
+      <c r="K36" s="59">
+        <v>17610.423759519999</v>
+      </c>
+      <c r="L36" s="56"/>
+      <c r="M36" s="142">
+        <v>1.8091328241970475E-2</v>
+      </c>
+      <c r="N36" s="60"/>
+    </row>
+    <row r="37" spans="1:14" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="78" t="s">
+        <v>103</v>
+      </c>
+      <c r="D37" s="79">
+        <v>1936028</v>
+      </c>
+      <c r="E37" s="80"/>
+      <c r="F37" s="81">
+        <v>129287836.84</v>
+      </c>
+      <c r="G37" s="81">
+        <v>157039326.80000001</v>
+      </c>
+      <c r="I37" s="56"/>
+      <c r="J37" s="59"/>
+      <c r="K37" s="59"/>
+      <c r="L37" s="56"/>
+      <c r="M37" s="142"/>
+      <c r="N37" s="60"/>
+    </row>
+    <row r="38" spans="1:14" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="73" t="s">
+        <v>104</v>
+      </c>
+      <c r="B38" s="58"/>
+      <c r="C38" s="58"/>
+      <c r="D38" s="58"/>
+      <c r="E38" s="74"/>
+      <c r="F38" s="74"/>
+      <c r="G38" s="74"/>
+      <c r="I38" s="56"/>
+      <c r="J38" s="59"/>
+      <c r="K38" s="59"/>
+      <c r="L38" s="56"/>
+      <c r="M38" s="142"/>
+      <c r="N38" s="60"/>
+    </row>
+    <row r="39" spans="1:14" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="74" t="s">
+        <v>139</v>
+      </c>
+      <c r="B39" s="74" t="s">
+        <v>140</v>
+      </c>
+      <c r="C39" s="61" t="s">
+        <v>143</v>
+      </c>
+      <c r="D39" s="75">
+        <v>378100</v>
+      </c>
+      <c r="E39" s="76">
+        <v>18.72</v>
+      </c>
+      <c r="F39" s="77">
+        <v>5966119.4199999999</v>
+      </c>
+      <c r="G39" s="77">
+        <v>7078032</v>
+      </c>
+      <c r="H39" s="62">
+        <v>8</v>
+      </c>
+      <c r="I39" s="63" t="s">
+        <v>19</v>
+      </c>
+      <c r="J39" s="64" t="s">
+        <v>78</v>
+      </c>
+      <c r="K39" s="64">
+        <v>80590.401642269993</v>
+      </c>
+      <c r="L39" s="63"/>
+      <c r="M39" s="141">
+        <v>4.133968598844847E-2</v>
+      </c>
+      <c r="N39" s="65">
+        <v>4.1000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="74" t="s">
+        <v>105</v>
+      </c>
+      <c r="B40" s="74" t="s">
+        <v>106</v>
+      </c>
+      <c r="C40" s="74" t="s">
         <v>123</v>
       </c>
-      <c r="C36" s="74" t="s">
-        <v>147</v>
-      </c>
-      <c r="D36" s="75">
-        <v>71500</v>
-      </c>
-      <c r="E36" s="76">
-        <v>87.9</v>
-      </c>
-      <c r="F36" s="77">
-        <v>3760692.48</v>
-      </c>
-      <c r="G36" s="77">
-        <v>6284850</v>
-      </c>
-      <c r="H36">
-        <v>15</v>
-      </c>
-      <c r="I36" s="56" t="s">
+      <c r="D40" s="75">
+        <v>65400</v>
+      </c>
+      <c r="E40" s="76">
+        <v>84.33</v>
+      </c>
+      <c r="F40" s="77">
+        <v>3470964.44</v>
+      </c>
+      <c r="G40" s="77">
+        <v>5515182</v>
+      </c>
+      <c r="H40">
+        <v>18</v>
+      </c>
+      <c r="I40" s="56" t="s">
         <v>22</v>
       </c>
-      <c r="J36" s="59">
-        <v>146.02811052414674</v>
-      </c>
-      <c r="K36" s="59">
-        <v>135081.90183228001</v>
-      </c>
-      <c r="L36" s="56"/>
-      <c r="M36" s="145">
-        <v>3.3782431682485736E-2</v>
-      </c>
-      <c r="N36" s="60"/>
-    </row>
-    <row r="37" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="74" t="s">
-        <v>179</v>
-      </c>
-      <c r="B37" s="74" t="s">
-        <v>180</v>
-      </c>
-      <c r="C37" s="74" t="s">
-        <v>181</v>
-      </c>
-      <c r="D37" s="75">
-        <v>316400</v>
-      </c>
-      <c r="E37" s="76">
-        <v>16.95</v>
-      </c>
-      <c r="F37" s="77">
-        <v>4674105.38</v>
-      </c>
-      <c r="G37" s="77">
-        <v>5362980</v>
-      </c>
-      <c r="H37">
-        <v>21</v>
-      </c>
-      <c r="I37" s="56" t="s">
-        <v>19</v>
-      </c>
-      <c r="J37" s="59" t="s">
-        <v>82</v>
-      </c>
-      <c r="K37" s="59">
-        <v>73030.634391194995</v>
-      </c>
-      <c r="L37" s="56"/>
-      <c r="M37" s="145">
-        <v>2.8827180515770042E-2</v>
-      </c>
-      <c r="N37" s="60"/>
-    </row>
-    <row r="38" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="74" t="s">
-        <v>83</v>
-      </c>
-      <c r="B38" s="74" t="s">
-        <v>84</v>
-      </c>
-      <c r="C38" s="74" t="s">
-        <v>148</v>
-      </c>
-      <c r="D38" s="75">
-        <v>38800</v>
-      </c>
-      <c r="E38" s="76">
-        <v>95.77</v>
-      </c>
-      <c r="F38" s="77">
-        <v>2497515.21</v>
-      </c>
-      <c r="G38" s="77">
-        <v>3715876</v>
-      </c>
-      <c r="H38">
-        <v>26</v>
-      </c>
-      <c r="I38" s="56" t="s">
-        <v>62</v>
-      </c>
-      <c r="J38" s="59">
-        <v>29.381739433446633</v>
-      </c>
-      <c r="K38" s="59">
-        <v>66635.395140700013</v>
-      </c>
-      <c r="L38" s="56"/>
-      <c r="M38" s="145">
-        <v>1.9973639324818947E-2</v>
-      </c>
-      <c r="N38" s="60"/>
-    </row>
-    <row r="39" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="78" t="s">
-        <v>124</v>
-      </c>
-      <c r="D39" s="79">
-        <v>426700</v>
-      </c>
-      <c r="E39" s="80"/>
-      <c r="F39" s="81">
-        <v>10932313.07</v>
-      </c>
-      <c r="G39" s="81">
-        <v>15363706</v>
-      </c>
-      <c r="I39" s="56"/>
-      <c r="J39" s="59"/>
-      <c r="K39" s="59"/>
-      <c r="L39" s="56"/>
-      <c r="M39" s="145"/>
-      <c r="N39" s="60"/>
-    </row>
-    <row r="40" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="73" t="s">
-        <v>53</v>
-      </c>
-      <c r="B40" s="58"/>
-      <c r="C40" s="58"/>
-      <c r="D40" s="58"/>
-      <c r="E40" s="74"/>
-      <c r="F40" s="74"/>
-      <c r="G40" s="74"/>
-      <c r="I40" s="56"/>
-      <c r="J40" s="59"/>
-      <c r="K40" s="59"/>
+      <c r="J40" s="59">
+        <v>128.1136268952028</v>
+      </c>
+      <c r="K40" s="59">
+        <v>131858.21418429003</v>
+      </c>
       <c r="L40" s="56"/>
-      <c r="M40" s="145"/>
+      <c r="M40" s="142">
+        <v>3.2211763389759077E-2</v>
+      </c>
       <c r="N40" s="60"/>
     </row>
-    <row r="41" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="74" t="s">
-        <v>63</v>
-      </c>
-      <c r="B41" s="74"/>
-      <c r="C41" s="74" t="s">
-        <v>66</v>
-      </c>
-      <c r="D41" s="75">
-        <v>1010977.09</v>
-      </c>
-      <c r="E41" s="76">
-        <v>100</v>
-      </c>
-      <c r="F41" s="77">
-        <v>1010977.09</v>
-      </c>
-      <c r="G41" s="77">
-        <v>1010977.09</v>
-      </c>
-      <c r="H41">
-        <v>28</v>
-      </c>
-      <c r="I41" s="137" t="s">
-        <v>54</v>
-      </c>
+    <row r="41" spans="1:14" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="78" t="s">
+        <v>107</v>
+      </c>
+      <c r="D41" s="79">
+        <v>443500</v>
+      </c>
+      <c r="E41" s="80"/>
+      <c r="F41" s="81">
+        <v>9437083.8599999994</v>
+      </c>
+      <c r="G41" s="81">
+        <v>12593214</v>
+      </c>
+      <c r="I41" s="56"/>
       <c r="J41" s="59"/>
       <c r="K41" s="59"/>
       <c r="L41" s="56"/>
-      <c r="M41" s="145">
-        <v>5.434221099228022E-3</v>
-      </c>
+      <c r="M41" s="142"/>
       <c r="N41" s="60"/>
     </row>
-    <row r="42" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="78" t="s">
-        <v>55</v>
-      </c>
-      <c r="D42" s="79">
-        <v>1010977.09</v>
-      </c>
-      <c r="E42" s="80"/>
-      <c r="F42" s="81">
-        <v>1010977.09</v>
-      </c>
-      <c r="G42" s="81">
-        <v>1010977.09</v>
-      </c>
+    <row r="42" spans="1:14" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="73" t="s">
+        <v>53</v>
+      </c>
+      <c r="B42" s="58"/>
+      <c r="C42" s="58"/>
+      <c r="D42" s="58"/>
+      <c r="E42" s="74"/>
+      <c r="F42" s="74"/>
+      <c r="G42" s="74"/>
       <c r="I42" s="56"/>
       <c r="J42" s="59"/>
       <c r="K42" s="59"/>
       <c r="L42" s="56"/>
-      <c r="M42" s="145"/>
+      <c r="M42" s="142"/>
       <c r="N42" s="60"/>
     </row>
-    <row r="43" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="78" t="s">
-        <v>56</v>
-      </c>
-      <c r="D43" s="82">
-        <v>2924347.09</v>
-      </c>
-      <c r="E43" s="80"/>
-      <c r="F43" s="83">
-        <v>129935120.28</v>
-      </c>
-      <c r="G43" s="83">
-        <v>186039005.69</v>
-      </c>
-      <c r="I43" s="56"/>
+    <row r="43" spans="1:14" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="74" t="s">
+        <v>63</v>
+      </c>
+      <c r="B43" s="74"/>
+      <c r="C43" s="74" t="s">
+        <v>66</v>
+      </c>
+      <c r="D43" s="75">
+        <v>1583854.07</v>
+      </c>
+      <c r="E43" s="76">
+        <v>100</v>
+      </c>
+      <c r="F43" s="77">
+        <v>1583854.07</v>
+      </c>
+      <c r="G43" s="77">
+        <v>1583854.07</v>
+      </c>
+      <c r="H43">
+        <v>30</v>
+      </c>
+      <c r="I43" s="137" t="s">
+        <v>54</v>
+      </c>
       <c r="J43" s="59"/>
       <c r="K43" s="59"/>
       <c r="L43" s="56"/>
-      <c r="M43" s="145"/>
+      <c r="M43" s="142">
+        <v>9.2505981754993603E-3</v>
+      </c>
       <c r="N43" s="60"/>
     </row>
-    <row r="44" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="84"/>
-      <c r="B44" s="84"/>
-      <c r="C44" s="84"/>
-      <c r="D44" s="74"/>
-      <c r="E44" s="74"/>
-      <c r="F44" s="74"/>
-      <c r="G44" s="74"/>
+    <row r="44" spans="1:14" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="78" t="s">
+        <v>55</v>
+      </c>
+      <c r="D44" s="79">
+        <v>1583854.07</v>
+      </c>
+      <c r="E44" s="80"/>
+      <c r="F44" s="81">
+        <v>1583854.07</v>
+      </c>
+      <c r="G44" s="81">
+        <v>1583854.07</v>
+      </c>
       <c r="I44" s="56"/>
       <c r="J44" s="59"/>
       <c r="K44" s="59"/>
       <c r="L44" s="56"/>
-      <c r="M44" s="145"/>
+      <c r="M44" s="142"/>
       <c r="N44" s="60"/>
     </row>
-    <row r="45" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:14" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="78" t="s">
         <v>56</v>
       </c>
       <c r="D45" s="82">
-        <v>2924347.09</v>
+        <v>3963382.07</v>
       </c>
       <c r="E45" s="80"/>
       <c r="F45" s="83">
-        <v>129935120.28</v>
+        <v>140308774.77000001</v>
       </c>
       <c r="G45" s="83">
-        <v>186039005.69</v>
+        <v>171216394.87</v>
       </c>
       <c r="I45" s="56"/>
       <c r="J45" s="59"/>
       <c r="K45" s="59"/>
       <c r="L45" s="56"/>
-      <c r="M45" s="145"/>
+      <c r="M45" s="142"/>
       <c r="N45" s="60"/>
     </row>
-    <row r="46" spans="1:14" ht="13.2" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="47" spans="1:14" ht="13.2" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="48" spans="1:14" ht="13.2" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="49" ht="13.2" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="50" ht="12.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="51" ht="12.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="52" ht="12.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="53" ht="12.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="54" ht="12.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="55" ht="12.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="56" ht="12.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="57" ht="12.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="58" ht="12.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="59" ht="12.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="60" ht="12.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="61" ht="12.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="62" ht="12.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="63" ht="12.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="64" ht="12.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="65" ht="12.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="66" ht="12.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="67" ht="12.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="68" ht="12.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="69" ht="12.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="70" ht="12.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="71" ht="12.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="72" ht="12.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="73" ht="12.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="74" ht="12.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="75" ht="12.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="76" ht="12.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="77" ht="12.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="46" spans="1:14" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="84"/>
+      <c r="B46" s="84"/>
+      <c r="C46" s="84"/>
+      <c r="D46" s="74"/>
+      <c r="E46" s="74"/>
+      <c r="F46" s="74"/>
+      <c r="G46" s="74"/>
+      <c r="I46" s="56"/>
+      <c r="J46" s="59"/>
+      <c r="K46" s="59"/>
+      <c r="L46" s="56"/>
+      <c r="M46" s="142"/>
+    </row>
+    <row r="47" spans="1:14" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="78" t="s">
+        <v>56</v>
+      </c>
+      <c r="D47" s="82">
+        <v>3963382.07</v>
+      </c>
+      <c r="E47" s="80"/>
+      <c r="F47" s="83">
+        <v>140308774.77000001</v>
+      </c>
+      <c r="G47" s="83">
+        <v>171216394.87</v>
+      </c>
+      <c r="I47" s="56"/>
+      <c r="J47" s="59"/>
+      <c r="K47" s="59"/>
+      <c r="L47" s="56"/>
+      <c r="M47" s="142"/>
+    </row>
+    <row r="48" spans="1:14" ht="13.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="49" ht="13.15" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.25" right="0.25" top="0.25" bottom="0.5" header="0.25" footer="0.25"/>
   <pageSetup orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
@@ -13913,22 +15221,22 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15E34AF0-EEA8-4190-876B-EC56389D260A}">
   <sheetPr>
-    <tabColor rgb="FFC00000"/>
+    <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="A1:C111"/>
+  <dimension ref="A1:C114"/>
   <sheetViews>
     <sheetView topLeftCell="A88" workbookViewId="0">
-      <selection activeCell="A112" sqref="A112"/>
+      <selection activeCell="A115" sqref="A115"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" style="85" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.109375" style="86"/>
-    <col min="3" max="3" width="16.109375" style="86" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" style="85" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="86"/>
+    <col min="3" max="3" width="16.140625" style="86" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="85" t="s">
         <v>0</v>
       </c>
@@ -13939,7 +15247,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="85">
         <f>'CPE Fact Sheet Backup'!A2</f>
         <v>40899</v>
@@ -13953,7 +15261,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="85">
         <f>'CPE Fact Sheet Backup'!A3</f>
         <v>40908</v>
@@ -13967,7 +15275,7 @@
         <v>10032.07</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="85">
         <f>'CPE Fact Sheet Backup'!A4</f>
         <v>40939</v>
@@ -13981,7 +15289,7 @@
         <v>10481.643759576458</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="85">
         <f>'CPE Fact Sheet Backup'!A5</f>
         <v>40968</v>
@@ -13995,7 +15303,7 @@
         <v>10934.888457344809</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="85">
         <f>'CPE Fact Sheet Backup'!A6</f>
         <v>40999</v>
@@ -14009,7 +15317,7 @@
         <v>11294.733335294173</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="85">
         <f>'CPE Fact Sheet Backup'!A7</f>
         <v>41029</v>
@@ -14023,7 +15331,7 @@
         <v>11223.870287919073</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="85">
         <f>'CPE Fact Sheet Backup'!A8</f>
         <v>41060</v>
@@ -14037,7 +15345,7 @@
         <v>10549.300544480164</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="85">
         <f>'CPE Fact Sheet Backup'!A9</f>
         <v>41090</v>
@@ -14051,7 +15359,7 @@
         <v>10983.958213428814</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="85">
         <f>'CPE Fact Sheet Backup'!A10</f>
         <v>41121</v>
@@ -14065,7 +15373,7 @@
         <v>11136.511252466489</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="85">
         <f>'CPE Fact Sheet Backup'!A11</f>
         <v>41152</v>
@@ -14079,7 +15387,7 @@
         <v>11387.343206388323</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="85">
         <f>'CPE Fact Sheet Backup'!A12</f>
         <v>41182</v>
@@ -14093,7 +15401,7 @@
         <v>11681.6223401762</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="85">
         <f>'CPE Fact Sheet Backup'!A13</f>
         <v>41213</v>
@@ -14107,7 +15415,7 @@
         <v>11465.919870723599</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="85">
         <f>'CPE Fact Sheet Backup'!A14</f>
         <v>41243</v>
@@ -14121,7 +15429,7 @@
         <v>11532.41496632607</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="85">
         <f>'CPE Fact Sheet Backup'!A15</f>
         <v>41274</v>
@@ -14135,7 +15443,7 @@
         <v>11637.524614301465</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="85">
         <f>'CPE Fact Sheet Backup'!A16</f>
         <v>41305</v>
@@ -14149,7 +15457,7 @@
         <v>12240.301958924289</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="85">
         <f>'CPE Fact Sheet Backup'!A17</f>
         <v>41333</v>
@@ -14163,7 +15471,7 @@
         <v>12406.469996572396</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="85">
         <f>'CPE Fact Sheet Backup'!A18</f>
         <v>41364</v>
@@ -14177,7 +15485,7 @@
         <v>12871.749795501501</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="85">
         <f>'CPE Fact Sheet Backup'!A19</f>
         <v>41394</v>
@@ -14191,7 +15499,7 @@
         <v>13119.747227528327</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="85">
         <f>'CPE Fact Sheet Backup'!A20</f>
         <v>41425</v>
@@ -14205,7 +15513,7 @@
         <v>13426.619073341551</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="85">
         <f>'CPE Fact Sheet Backup'!A21</f>
         <v>41455</v>
@@ -14219,7 +15527,7 @@
         <v>13246.324893790475</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="85">
         <f>'CPE Fact Sheet Backup'!A22</f>
         <v>41486</v>
@@ -14233,7 +15541,7 @@
         <v>13920.383493936844</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="85">
         <f>'CPE Fact Sheet Backup'!A23</f>
         <v>41517</v>
@@ -14247,7 +15555,7 @@
         <v>13517.230838837584</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="85">
         <f>'CPE Fact Sheet Backup'!A24</f>
         <v>41547</v>
@@ -14261,7 +15569,7 @@
         <v>13941.108031070808</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="85">
         <f>'CPE Fact Sheet Backup'!A25</f>
         <v>41578</v>
@@ -14275,7 +15583,7 @@
         <v>14581.942317201967</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="85">
         <f>'CPE Fact Sheet Backup'!A26</f>
         <v>41608</v>
@@ -14289,7 +15597,7 @@
         <v>15026.311708708909</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="85">
         <f>'CPE Fact Sheet Backup'!A27</f>
         <v>41639</v>
@@ -14303,7 +15611,7 @@
         <v>15406.741721076092</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="85">
         <f>'CPE Fact Sheet Backup'!A28</f>
         <v>41670</v>
@@ -14317,7 +15625,7 @@
         <v>14874.037475103531</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="85">
         <f>'CPE Fact Sheet Backup'!A29</f>
         <v>41698</v>
@@ -14331,7 +15639,7 @@
         <v>15554.462132620647</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="85">
         <f>'CPE Fact Sheet Backup'!A30</f>
         <v>41729</v>
@@ -14345,7 +15653,7 @@
         <v>15685.175412795177</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="85">
         <f>'CPE Fact Sheet Backup'!A31</f>
         <v>41759</v>
@@ -14359,7 +15667,7 @@
         <v>15801.112005058045</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="85">
         <f>'CPE Fact Sheet Backup'!A32</f>
         <v>41790</v>
@@ -14373,7 +15681,7 @@
         <v>16172.06263272718</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="85">
         <f>'CPE Fact Sheet Backup'!A33</f>
         <v>41820</v>
@@ -14387,7 +15695,7 @@
         <v>16506.118008189213</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="85">
         <f>'CPE Fact Sheet Backup'!A34</f>
         <v>41851</v>
@@ -14401,7 +15709,7 @@
         <v>16278.473372719955</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="85">
         <f>'CPE Fact Sheet Backup'!A35</f>
         <v>41882</v>
@@ -14415,7 +15723,7 @@
         <v>16929.716394990144</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="85">
         <f>'CPE Fact Sheet Backup'!A36</f>
         <v>41912</v>
@@ -14429,7 +15737,7 @@
         <v>16692.313569390546</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="85">
         <f>'CPE Fact Sheet Backup'!A37</f>
         <v>41943</v>
@@ -14443,7 +15751,7 @@
         <v>17100.020046550631</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="85">
         <f>'CPE Fact Sheet Backup'!A38</f>
         <v>41973</v>
@@ -14457,7 +15765,7 @@
         <v>17559.909607122027</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="85">
         <f>'CPE Fact Sheet Backup'!A39</f>
         <v>42004</v>
@@ -14471,7 +15779,7 @@
         <v>17515.672478531145</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="85">
         <f>'CPE Fact Sheet Backup'!A40</f>
         <v>42035</v>
@@ -14485,7 +15793,7 @@
         <v>16989.845433221872</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="85">
         <f>'CPE Fact Sheet Backup'!A41</f>
         <v>42063</v>
@@ -14499,7 +15807,7 @@
         <v>17966.314992264735</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="85">
         <f>'CPE Fact Sheet Backup'!A42</f>
         <v>42094</v>
@@ -14513,7 +15821,7 @@
         <v>17682.165789183593</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="85">
         <f>'CPE Fact Sheet Backup'!A43</f>
         <v>42124</v>
@@ -14527,7 +15835,7 @@
         <v>17851.818894735392</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="85">
         <f>'CPE Fact Sheet Backup'!A44</f>
         <v>42155</v>
@@ -14541,7 +15849,7 @@
         <v>18081.36870065867</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="85">
         <f>'CPE Fact Sheet Backup'!A45</f>
         <v>42185</v>
@@ -14555,7 +15863,7 @@
         <v>17731.328480411696</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="85">
         <f>'CPE Fact Sheet Backup'!A46</f>
         <v>42216</v>
@@ -14569,7 +15877,7 @@
         <v>18102.836718945422</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="85">
         <f>'CPE Fact Sheet Backup'!A47</f>
         <v>42247</v>
@@ -14583,7 +15891,7 @@
         <v>17010.616437927885</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="85">
         <f>'CPE Fact Sheet Backup'!A48</f>
         <v>42277</v>
@@ -14597,7 +15905,7 @@
         <v>16589.713170305811</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="85">
         <f>'CPE Fact Sheet Backup'!A49</f>
         <v>42308</v>
@@ -14611,7 +15919,7 @@
         <v>17989.130570140915</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="85">
         <f>'CPE Fact Sheet Backup'!A50</f>
         <v>42338</v>
@@ -14625,7 +15933,7 @@
         <v>18042.614745569597</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="85">
         <f>'CPE Fact Sheet Backup'!A51</f>
         <v>42369</v>
@@ -14639,7 +15947,7 @@
         <v>17758.047334340012</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="85">
         <f>'CPE Fact Sheet Backup'!A52</f>
         <v>42400</v>
@@ -14653,7 +15961,7 @@
         <v>16876.836297998103</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="85">
         <f>'CPE Fact Sheet Backup'!A53</f>
         <v>42429</v>
@@ -14667,7 +15975,7 @@
         <v>16854.06718769397</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="85">
         <f>'CPE Fact Sheet Backup'!A54</f>
         <v>42460</v>
@@ -14681,7 +15989,7 @@
         <v>17997.401797965682</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="85">
         <f>'CPE Fact Sheet Backup'!A55</f>
         <v>42490</v>
@@ -14695,7 +16003,7 @@
         <v>18067.19609118365</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="85">
         <f>'CPE Fact Sheet Backup'!A56</f>
         <v>42521</v>
@@ -14709,7 +16017,7 @@
         <v>18391.632679231487</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="85">
         <f>'CPE Fact Sheet Backup'!A57</f>
         <v>42551</v>
@@ -14723,7 +16031,7 @@
         <v>18439.308408154015</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="85">
         <f>'CPE Fact Sheet Backup'!A58</f>
         <v>42582</v>
@@ -14737,7 +16045,7 @@
         <v>19119.12898723449</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="85">
         <f>'CPE Fact Sheet Backup'!A59</f>
         <v>42613</v>
@@ -14751,7 +16059,7 @@
         <v>19145.98724387895</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="85">
         <f>'CPE Fact Sheet Backup'!A60</f>
         <v>42643</v>
@@ -14765,7 +16073,7 @@
         <v>19149.565246926744</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="85">
         <f>'CPE Fact Sheet Backup'!A61</f>
         <v>42674</v>
@@ -14779,7 +16087,7 @@
         <v>18800.268507832556</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="85">
         <f>'CPE Fact Sheet Backup'!A62</f>
         <v>42704</v>
@@ -14793,7 +16101,7 @@
         <v>19496.538607418464</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="85">
         <f>'CPE Fact Sheet Backup'!A63</f>
         <v>42735</v>
@@ -14807,7 +16115,7 @@
         <v>19881.894182422868</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="85">
         <f>'CPE Fact Sheet Backup'!A64</f>
         <v>42766</v>
@@ -14821,7 +16129,7 @@
         <v>20258.978529602504</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="85">
         <f>'CPE Fact Sheet Backup'!A65</f>
         <v>42794</v>
@@ -14835,7 +16143,7 @@
         <v>21063.425136919061</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="85">
         <f>'CPE Fact Sheet Backup'!A66</f>
         <v>42825</v>
@@ -14849,7 +16157,7 @@
         <v>21087.960014961063</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="85">
         <f>'CPE Fact Sheet Backup'!A67</f>
         <v>42855</v>
@@ -14863,7 +16171,7 @@
         <v>21304.545368282601</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="85">
         <f>'CPE Fact Sheet Backup'!A68</f>
         <v>42886</v>
@@ -14877,7 +16185,7 @@
         <v>21604.354143144341</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" s="85">
         <f>'CPE Fact Sheet Backup'!A69</f>
         <v>42916</v>
@@ -14891,7 +16199,7 @@
         <v>21739.203037231255</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" s="85">
         <f>'CPE Fact Sheet Backup'!A70</f>
         <v>42947</v>
@@ -14905,7 +16213,7 @@
         <v>22186.221080345011</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" s="85">
         <f>'CPE Fact Sheet Backup'!A71</f>
         <v>42978</v>
@@ -14919,7 +16227,7 @@
         <v>22254.156670681012</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" s="85">
         <f>'CPE Fact Sheet Backup'!A72</f>
         <v>43008</v>
@@ -14933,7 +16241,7 @@
         <v>22713.20981495552</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" s="85">
         <f>'CPE Fact Sheet Backup'!A73</f>
         <v>43039</v>
@@ -14947,7 +16255,7 @@
         <v>23243.218941749219</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" s="85">
         <f>'CPE Fact Sheet Backup'!A74</f>
         <v>43069</v>
@@ -14961,7 +16269,7 @@
         <v>23956.077964556709</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" s="85">
         <f>'CPE Fact Sheet Backup'!A75</f>
         <v>43100</v>
@@ -14975,7 +16283,7 @@
         <v>24222.430087542994</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" s="85">
         <f>'CPE Fact Sheet Backup'!A76</f>
         <v>43131</v>
@@ -14989,7 +16297,7 @@
         <v>25609.254775352758</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" s="85">
         <f>'CPE Fact Sheet Backup'!A77</f>
         <v>43159</v>
@@ -15003,7 +16311,7 @@
         <v>24665.405451888466</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" s="85">
         <f>'CPE Fact Sheet Backup'!A78</f>
         <v>43190</v>
@@ -15017,7 +16325,7 @@
         <v>24038.557904944129</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" s="85">
         <f>'CPE Fact Sheet Backup'!A79</f>
         <v>43220</v>
@@ -15031,7 +16339,7 @@
         <v>24130.796035461884</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" s="85">
         <f>'CPE Fact Sheet Backup'!A80</f>
         <v>43251</v>
@@ -15045,7 +16353,7 @@
         <v>24711.919491509765</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" s="85">
         <f>'CPE Fact Sheet Backup'!A81</f>
         <v>43281</v>
@@ -15059,7 +16367,7 @@
         <v>24864.007854826948</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" s="85">
         <f>'CPE Fact Sheet Backup'!A82</f>
         <v>43312</v>
@@ -15073,7 +16381,7 @@
         <v>25789.316617043591</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" s="85">
         <f>'CPE Fact Sheet Backup'!A83</f>
         <v>43343</v>
@@ -15087,7 +16395,7 @@
         <v>26629.636189982168</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" s="85">
         <f>'CPE Fact Sheet Backup'!A84</f>
         <v>43373</v>
@@ -15101,7 +16409,7 @@
         <v>26781.213410006811</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" s="85">
         <f>'CPE Fact Sheet Backup'!A85</f>
         <v>43404</v>
@@ -15115,7 +16423,7 @@
         <v>24950.716344270844</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" s="85">
         <f>'CPE Fact Sheet Backup'!A86</f>
         <v>43434</v>
@@ -15129,7 +16437,7 @@
         <v>25459.164517633701</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" s="85">
         <f>'CPE Fact Sheet Backup'!A87</f>
         <v>43465</v>
@@ -15143,7 +16451,7 @@
         <v>23160.460195929529</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" s="85">
         <f>'CPE Fact Sheet Backup'!A88</f>
         <v>43496</v>
@@ -15157,7 +16465,7 @@
         <v>25016.421491148481</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" s="85">
         <f>'CPE Fact Sheet Backup'!A89</f>
         <v>43524</v>
@@ -15171,7 +16479,7 @@
         <v>25819.659941591755</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" s="85">
         <f>'CPE Fact Sheet Backup'!A90</f>
         <v>43555</v>
@@ -15185,7 +16493,7 @@
         <v>26321.37031700747</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" s="85">
         <f>'CPE Fact Sheet Backup'!A91</f>
         <v>43585</v>
@@ -15199,7 +16507,7 @@
         <v>27387.104081956935</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" s="85">
         <f>'CPE Fact Sheet Backup'!A92</f>
         <v>43616</v>
@@ -15213,7 +16521,7 @@
         <v>25646.707638424457</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" s="85">
         <f>'CPE Fact Sheet Backup'!A93</f>
         <v>43646</v>
@@ -15227,7 +16535,7 @@
         <v>27454.203255996043</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" s="85">
         <f>'CPE Fact Sheet Backup'!A94</f>
         <v>43677</v>
@@ -15241,7 +16549,7 @@
         <v>27848.80587783824</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" s="85">
         <f>'CPE Fact Sheet Backup'!A95</f>
         <v>43708</v>
@@ -15255,7 +16563,7 @@
         <v>27407.642748802693</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" s="85">
         <f>'CPE Fact Sheet Backup'!A96</f>
         <v>43738</v>
@@ -15269,7 +16577,7 @@
         <v>27920.458873938183</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" s="85">
         <f>'CPE Fact Sheet Backup'!A97</f>
         <v>43769</v>
@@ -15283,7 +16591,7 @@
         <v>28525.187856587072</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" s="85">
         <f>'CPE Fact Sheet Backup'!A98</f>
         <v>43799</v>
@@ -15297,7 +16605,7 @@
         <v>29560.624764560438</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" s="85">
         <f>'CPE Fact Sheet Backup'!A99</f>
         <v>43830</v>
@@ -15311,7 +16619,7 @@
         <v>30452.848615478015</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" s="85">
         <f>'CPE Fact Sheet Backup'!A100</f>
         <v>43861</v>
@@ -15325,7 +16633,7 @@
         <v>30440.906449461359</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" s="85">
         <f>'CPE Fact Sheet Backup'!A101</f>
         <v>43890</v>
@@ -15339,7 +16647,7 @@
         <v>27935.049691561646</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" s="85">
         <f>'CPE Fact Sheet Backup'!A102</f>
         <v>43921</v>
@@ -15353,7 +16661,7 @@
         <v>24484.693064188948</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" s="85">
         <f>'CPE Fact Sheet Backup'!A103</f>
         <v>43951</v>
@@ -15367,7 +16675,7 @@
         <v>27623.484620971449</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" s="85">
         <f>'CPE Fact Sheet Backup'!A104</f>
         <v>43982</v>
@@ -15381,7 +16689,7 @@
         <v>28939.120988401766</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" s="85">
         <f>'CPE Fact Sheet Backup'!A105</f>
         <v>44012</v>
@@ -15395,7 +16703,7 @@
         <v>29514.66833580373</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" s="85">
         <f>'CPE Fact Sheet Backup'!A106</f>
         <v>44043</v>
@@ -15409,7 +16717,7 @@
         <v>31178.857961175443</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" s="85">
         <f>'CPE Fact Sheet Backup'!A107</f>
         <v>44074</v>
@@ -15423,7 +16731,7 @@
         <v>33419.988961110597</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" s="85">
         <f>'CPE Fact Sheet Backup'!A108</f>
         <v>44104</v>
@@ -15437,7 +16745,7 @@
         <v>32150.12315214879</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" s="85">
         <f>'CPE Fact Sheet Backup'!A109</f>
         <v>44135</v>
@@ -15451,7 +16759,7 @@
         <v>31295.166294014703</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" s="85">
         <f>'CPE Fact Sheet Backup'!A110</f>
         <v>44165</v>
@@ -15465,7 +16773,7 @@
         <v>34720.84864062925</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" s="85">
         <f>'CPE Fact Sheet Backup'!A111</f>
         <v>44196</v>
@@ -15477,6 +16785,48 @@
       <c r="C111" s="86">
         <f>'CPE Fact Sheet Backup'!E111</f>
         <v>36055.815518032054</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A112" s="85">
+        <f>'CPE Fact Sheet Backup'!A112</f>
+        <v>44227</v>
+      </c>
+      <c r="B112" s="86">
+        <f>'CPE Fact Sheet Backup'!B112</f>
+        <v>35154</v>
+      </c>
+      <c r="C112" s="86">
+        <f>'CPE Fact Sheet Backup'!E112</f>
+        <v>35691.788558598259</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A113" s="85">
+        <f>'CPE Fact Sheet Backup'!A113</f>
+        <v>44255</v>
+      </c>
+      <c r="B113" s="86">
+        <f>'CPE Fact Sheet Backup'!B113</f>
+        <v>36208</v>
+      </c>
+      <c r="C113" s="86">
+        <f>'CPE Fact Sheet Backup'!E113</f>
+        <v>36675.971734601299</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A114" s="85">
+        <f>'CPE Fact Sheet Backup'!A114</f>
+        <v>44286</v>
+      </c>
+      <c r="B114" s="86">
+        <f>'CPE Fact Sheet Backup'!B114</f>
+        <v>35347</v>
+      </c>
+      <c r="C114" s="86">
+        <f>'CPE Fact Sheet Backup'!E114</f>
+        <v>38282.216297627601</v>
       </c>
     </row>
   </sheetData>
@@ -15488,34 +16838,34 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F198DCB0-A4AE-45A5-9844-403C5505C612}">
   <sheetPr>
-    <tabColor rgb="FFC00000"/>
+    <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="A115" sqref="A115"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="3" width="9.109375" style="86"/>
+    <col min="2" max="3" width="9.140625" style="86"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B1" s="86" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="86" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
         <f>'CPE Fact Sheet Backup'!U6</f>
         <v>2012</v>
@@ -15532,7 +16882,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
         <f>'CPE Fact Sheet Backup'!U7</f>
         <v>2013</v>
@@ -15549,7 +16899,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
         <f>'CPE Fact Sheet Backup'!U8</f>
         <v>2014</v>
@@ -15566,7 +16916,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
         <f>'CPE Fact Sheet Backup'!U9</f>
         <v>2015</v>
@@ -15583,7 +16933,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
         <f>'CPE Fact Sheet Backup'!U10</f>
         <v>2016</v>
@@ -15600,7 +16950,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
         <f>'CPE Fact Sheet Backup'!U11</f>
         <v>2017</v>
@@ -15617,7 +16967,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8">
         <f>'CPE Fact Sheet Backup'!U12</f>
         <v>2018</v>
@@ -15634,7 +16984,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9">
         <f>'CPE Fact Sheet Backup'!U13</f>
         <v>2019</v>
@@ -15651,7 +17001,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10">
         <f>'CPE Fact Sheet Backup'!U14</f>
         <v>2020</v>
@@ -15666,6 +17016,23 @@
       </c>
       <c r="D10">
         <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="str">
+        <f>'CPE Fact Sheet Backup'!U15</f>
+        <v>2021 YTD</v>
+      </c>
+      <c r="B11" s="86">
+        <f>'CPE Fact Sheet Backup'!X15*100</f>
+        <v>4.2454432242733375E-2</v>
+      </c>
+      <c r="C11" s="86">
+        <f>'CPE Fact Sheet Backup'!Z15*100</f>
+        <v>6.1748728952811804</v>
+      </c>
+      <c r="D11">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -15676,22 +17043,22 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{659CB716-C2F9-4D14-A1B2-CB66B5765C34}">
   <sheetPr>
-    <tabColor rgb="FFC00000"/>
+    <tabColor rgb="FFFF0000"/>
   </sheetPr>
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G35" sqref="G35"/>
+      <selection activeCell="A115" sqref="A115"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22" bestFit="1" customWidth="1"/>
-    <col min="2" max="5" width="9.109375" style="86"/>
-    <col min="6" max="6" width="16.88671875" style="86" bestFit="1" customWidth="1"/>
+    <col min="2" max="5" width="9.140625" style="86"/>
+    <col min="6" max="6" width="16.85546875" style="86" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="str">
         <f>'CPE Fact Sheet Backup'!I17</f>
         <v>Share Class/Benchmark</v>
@@ -15718,178 +17085,178 @@
  Inception*</v>
       </c>
       <c r="G1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="str">
         <f>'CPE Fact Sheet Backup'!I18</f>
         <v>Class A</v>
       </c>
       <c r="B2" s="86">
         <f>'CPE Fact Sheet Backup'!J18</f>
-        <v>20.995856306290882</v>
+        <v>4.2454432242733375E-2</v>
       </c>
       <c r="C2" s="86">
         <f>'CPE Fact Sheet Backup'!K18</f>
-        <v>20.995856306290882</v>
+        <v>47.611292073832786</v>
       </c>
       <c r="D2" s="86">
         <f>'CPE Fact Sheet Backup'!L18</f>
-        <v>8.8642183919732211</v>
+        <v>9.0951705528335314</v>
       </c>
       <c r="E2" s="86">
         <f>'CPE Fact Sheet Backup'!M18</f>
-        <v>12.039511158632443</v>
+        <v>13.289570721229115</v>
       </c>
       <c r="F2" s="86">
         <f>'CPE Fact Sheet Backup'!N18</f>
-        <v>15.013833745569594</v>
+        <v>14.586167887579183</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="str">
         <f>'CPE Fact Sheet Backup'!I19</f>
         <v>Class C</v>
       </c>
       <c r="B3" s="86">
         <f>'CPE Fact Sheet Backup'!J19</f>
-        <v>20.079999999999998</v>
+        <v>-0.14000000000000001</v>
       </c>
       <c r="C3" s="86">
         <f>'CPE Fact Sheet Backup'!K19</f>
-        <v>20.079999999999998</v>
+        <v>46.53</v>
       </c>
       <c r="D3" s="86">
         <f>'CPE Fact Sheet Backup'!L19</f>
-        <v>8.0500000000000007</v>
+        <v>8.2899999999999991</v>
       </c>
       <c r="E3" s="86">
         <f>'CPE Fact Sheet Backup'!M19</f>
-        <v>11.21</v>
+        <v>12.44</v>
       </c>
       <c r="F3" s="86">
         <f>'CPE Fact Sheet Backup'!N19</f>
-        <v>14.15</v>
+        <v>13.73</v>
       </c>
       <c r="G3">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="str">
         <f>'CPE Fact Sheet Backup'!I20</f>
         <v>S&amp;P 500 TR Index</v>
       </c>
       <c r="B4" s="86">
         <f>'CPE Fact Sheet Backup'!J20</f>
-        <v>18.398826898926846</v>
+        <v>6.1748728952811804</v>
       </c>
       <c r="C4" s="86">
         <f>'CPE Fact Sheet Backup'!K20</f>
-        <v>18.398826898926846</v>
+        <v>56.351628330676377</v>
       </c>
       <c r="D4" s="86">
         <f>'CPE Fact Sheet Backup'!L20</f>
-        <v>14.178904188562003</v>
+        <v>16.778498637956641</v>
       </c>
       <c r="E4" s="86">
         <f>'CPE Fact Sheet Backup'!M20</f>
-        <v>15.216856682869984</v>
+        <v>16.294038412866563</v>
       </c>
       <c r="F4" s="86">
         <f>'CPE Fact Sheet Backup'!N20</f>
-        <v>15.27</v>
+        <v>15.57</v>
       </c>
       <c r="G4">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="str">
         <f>'CPE Fact Sheet Backup'!I21</f>
         <v>Class A w/ Sales Charge</v>
       </c>
       <c r="B5" s="86">
         <f>'CPE Fact Sheet Backup'!J21</f>
-        <v>14.04</v>
+        <v>-5.71</v>
       </c>
       <c r="C5" s="86">
         <f>'CPE Fact Sheet Backup'!K21</f>
-        <v>14.04</v>
+        <v>39.130000000000003</v>
       </c>
       <c r="D5" s="86">
         <f>'CPE Fact Sheet Backup'!L21</f>
-        <v>6.74</v>
+        <v>6.96</v>
       </c>
       <c r="E5" s="86">
         <f>'CPE Fact Sheet Backup'!M21</f>
-        <v>10.72</v>
+        <v>11.96</v>
       </c>
       <c r="F5" s="86">
         <f>'CPE Fact Sheet Backup'!N21</f>
-        <v>14.26</v>
+        <v>13.86</v>
       </c>
       <c r="G5">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="str">
         <f>'CPE Fact Sheet Backup'!I22</f>
         <v>Class I</v>
       </c>
       <c r="B6" s="86">
         <f>'CPE Fact Sheet Backup'!J22</f>
-        <v>21.32</v>
+        <v>0.12</v>
       </c>
       <c r="C6" s="86">
         <f>'CPE Fact Sheet Backup'!K22</f>
-        <v>21.32</v>
+        <v>48.03</v>
       </c>
       <c r="D6" s="86">
         <f>'CPE Fact Sheet Backup'!L22</f>
-        <v>9.1300000000000008</v>
+        <v>9.3699999999999992</v>
       </c>
       <c r="E6" s="86">
         <f>'CPE Fact Sheet Backup'!M22</f>
-        <v>12.32</v>
+        <v>13.57</v>
       </c>
       <c r="F6" s="86">
         <f>'CPE Fact Sheet Backup'!N22</f>
-        <v>12.35</v>
+        <v>11.9</v>
       </c>
       <c r="G6">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="str">
         <f>'CPE Fact Sheet Backup'!I23</f>
         <v>S&amp;P 500 TR Index</v>
       </c>
       <c r="B7" s="86">
         <f>'CPE Fact Sheet Backup'!J23</f>
-        <v>18.398826898926846</v>
+        <v>6.1748728952811804</v>
       </c>
       <c r="C7" s="86">
         <f>'CPE Fact Sheet Backup'!K23</f>
-        <v>18.398826898926846</v>
+        <v>56.351628330676377</v>
       </c>
       <c r="D7" s="86">
         <f>'CPE Fact Sheet Backup'!L23</f>
-        <v>14.178904188562003</v>
+        <v>16.778498637956641</v>
       </c>
       <c r="E7" s="86">
         <f>'CPE Fact Sheet Backup'!M23</f>
-        <v>15.216856682869984</v>
+        <v>16.294038412866563</v>
       </c>
       <c r="F7" s="86">
         <f>'CPE Fact Sheet Backup'!N23</f>
-        <v>12.74</v>
+        <v>13.24</v>
       </c>
       <c r="G7">
         <v>6</v>
@@ -15903,24 +17270,24 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37D73141-F4EC-4C5B-9398-6109016520C3}">
   <sheetPr>
-    <tabColor rgb="FFC00000"/>
+    <tabColor rgb="FFFF0000"/>
   </sheetPr>
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="A115" sqref="A115"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.109375" style="86"/>
-    <col min="3" max="3" width="16.109375" style="86" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="86"/>
+    <col min="3" max="3" width="16.140625" style="86" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B1" s="86" t="s">
         <v>1</v>
@@ -15929,78 +17296,78 @@
         <v>4</v>
       </c>
       <c r="D1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="str">
         <f>'CPE Fact Sheet Backup'!J17</f>
         <v>YTD</v>
       </c>
       <c r="B2" s="86">
         <f>'CPE Fact Sheet Backup'!J18</f>
-        <v>20.995856306290882</v>
+        <v>4.2454432242733375E-2</v>
       </c>
       <c r="C2" s="86">
         <f>'CPE Fact Sheet Backup'!J20</f>
-        <v>18.398826898926846</v>
+        <v>6.1748728952811804</v>
       </c>
       <c r="D2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="str">
         <f>'CPE Fact Sheet Backup'!K17</f>
         <v>1 Year</v>
       </c>
       <c r="B3" s="86">
         <f>'CPE Fact Sheet Backup'!K18</f>
-        <v>20.995856306290882</v>
+        <v>47.611292073832786</v>
       </c>
       <c r="C3" s="86">
         <f>'CPE Fact Sheet Backup'!K20</f>
-        <v>18.398826898926846</v>
+        <v>56.351628330676377</v>
       </c>
       <c r="D3">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="str">
         <f>'CPE Fact Sheet Backup'!L17</f>
         <v>3 Years</v>
       </c>
       <c r="B4" s="86">
         <f>'CPE Fact Sheet Backup'!L18</f>
-        <v>8.8642183919732211</v>
+        <v>9.0951705528335314</v>
       </c>
       <c r="C4" s="86">
         <f>'CPE Fact Sheet Backup'!L20</f>
-        <v>14.178904188562003</v>
+        <v>16.778498637956641</v>
       </c>
       <c r="D4">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="str">
         <f>'CPE Fact Sheet Backup'!M17</f>
         <v>5 Years</v>
       </c>
       <c r="B5" s="86">
         <f>'CPE Fact Sheet Backup'!M18</f>
-        <v>12.039511158632443</v>
+        <v>13.289570721229115</v>
       </c>
       <c r="C5" s="86">
         <f>'CPE Fact Sheet Backup'!M20</f>
-        <v>15.216856682869984</v>
+        <v>16.294038412866563</v>
       </c>
       <c r="D5">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="str">
         <f>'CPE Fact Sheet Backup'!N17</f>
         <v>Since
@@ -16008,11 +17375,11 @@
       </c>
       <c r="B6" s="86">
         <f>'CPE Fact Sheet Backup'!N18</f>
-        <v>15.013833745569594</v>
+        <v>14.586167887579183</v>
       </c>
       <c r="C6" s="86">
         <f>'CPE Fact Sheet Backup'!N20</f>
-        <v>15.27</v>
+        <v>15.57</v>
       </c>
       <c r="D6">
         <v>5</v>
@@ -16026,169 +17393,171 @@
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4952992C-EF9B-4448-A835-6B25877EB272}">
   <sheetPr>
-    <tabColor rgb="FFC00000"/>
+    <tabColor rgb="FFFF0000"/>
   </sheetPr>
   <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A115" sqref="A115"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="9.109375" style="87"/>
+    <col min="1" max="1" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="9.140625" style="87"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B1" s="87" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C1" s="87" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="str">
         <f>'CPE Fact Sheet Backup'!I27</f>
         <v>Information Technology</v>
       </c>
       <c r="B2" s="87">
         <f>'CPE Fact Sheet Backup'!J27*100</f>
-        <v>33.375395804610854</v>
+        <v>27.325465961085737</v>
       </c>
       <c r="C2" s="87">
         <f>'CPE Fact Sheet Backup'!K27*100</f>
-        <v>27.6</v>
+        <v>26.6</v>
       </c>
       <c r="D2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="str">
         <f>'CPE Fact Sheet Backup'!I28</f>
-        <v>Communication Services</v>
+        <v>Consumer Discretionary</v>
       </c>
       <c r="B3" s="87">
         <f>'CPE Fact Sheet Backup'!J28*100</f>
-        <v>16.861267820507454</v>
+        <v>19.581406106264431</v>
       </c>
       <c r="C3" s="87">
         <f>'CPE Fact Sheet Backup'!K28*100</f>
-        <v>10.8</v>
+        <v>12.4</v>
       </c>
       <c r="D3">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="str">
         <f>'CPE Fact Sheet Backup'!I29</f>
-        <v>Consumer Discretionary</v>
+        <v>Industrials</v>
       </c>
       <c r="B4" s="87">
         <f>'CPE Fact Sheet Backup'!J29*100</f>
-        <v>15.583654079676887</v>
+        <v>14.642570893421357</v>
       </c>
       <c r="C4" s="87">
         <f>'CPE Fact Sheet Backup'!K29*100</f>
-        <v>12.7</v>
+        <v>8.9</v>
       </c>
       <c r="D4">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="str">
         <f>'CPE Fact Sheet Backup'!I30</f>
-        <v>Industrials</v>
+        <v>Financials</v>
       </c>
       <c r="B5" s="87">
         <f>'CPE Fact Sheet Backup'!J30*100</f>
-        <v>15.53055817130346</v>
+        <v>11.687665784105528</v>
       </c>
       <c r="C5" s="87">
         <f>'CPE Fact Sheet Backup'!K30*100</f>
-        <v>8.4</v>
+        <v>11.3</v>
       </c>
       <c r="D5">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="str">
         <f>'CPE Fact Sheet Backup'!I31</f>
         <v>Health Care</v>
       </c>
       <c r="B6" s="87">
         <f>'CPE Fact Sheet Backup'!J31*100</f>
-        <v>14.385342418242422</v>
+        <v>11.3749375547753</v>
       </c>
       <c r="C6" s="87">
         <f>'CPE Fact Sheet Backup'!K31*100</f>
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="D6">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="str">
         <f>'CPE Fact Sheet Backup'!I32</f>
-        <v>Materials</v>
+        <v>Communication Services</v>
       </c>
       <c r="B7" s="87">
         <f>'CPE Fact Sheet Backup'!J32*100</f>
-        <v>3.72035959573613</v>
+        <v>7.9455296966912474</v>
       </c>
       <c r="C7" s="87">
         <f>'CPE Fact Sheet Backup'!K32*100</f>
-        <v>2.6</v>
+        <v>10.9</v>
       </c>
       <c r="D7">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="str">
         <f>'CPE Fact Sheet Backup'!I33</f>
-        <v>Cash</v>
+        <v>Materials</v>
       </c>
       <c r="B8" s="87">
         <f>'CPE Fact Sheet Backup'!J33*100</f>
-        <v>0.54342210992280215</v>
+        <v>6.5173641861064615</v>
       </c>
       <c r="C8" s="87">
         <f>'CPE Fact Sheet Backup'!K33*100</f>
-        <v>0</v>
+        <v>2.7</v>
       </c>
       <c r="D8">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="str">
         <f>'CPE Fact Sheet Backup'!I34</f>
-        <v>Financials</v>
+        <v>Cash</v>
       </c>
       <c r="B9" s="87">
         <f>'CPE Fact Sheet Backup'!J34*100</f>
-        <v>0</v>
+        <v>0.92505981754993605</v>
       </c>
       <c r="C9" s="87">
         <f>'CPE Fact Sheet Backup'!K34*100</f>
-        <v>10.4</v>
+        <v>0</v>
       </c>
       <c r="D9">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="str">
         <f>'CPE Fact Sheet Backup'!I35</f>
         <v>Consumer Staples</v>
@@ -16199,13 +17568,13 @@
       </c>
       <c r="C10" s="87">
         <f>'CPE Fact Sheet Backup'!K35*100</f>
-        <v>6.5</v>
+        <v>6.1</v>
       </c>
       <c r="D10">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="str">
         <f>'CPE Fact Sheet Backup'!I36</f>
         <v>Real Estate</v>
@@ -16216,13 +17585,13 @@
       </c>
       <c r="C11" s="87">
         <f>'CPE Fact Sheet Backup'!K36*100</f>
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="D11">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="str">
         <f>'CPE Fact Sheet Backup'!I37</f>
         <v>Utilities</v>
@@ -16233,13 +17602,13 @@
       </c>
       <c r="C12" s="87">
         <f>'CPE Fact Sheet Backup'!K37*100</f>
-        <v>2.8000000000000003</v>
+        <v>2.7</v>
       </c>
       <c r="D12">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="str">
         <f>'CPE Fact Sheet Backup'!I38</f>
         <v>Energy</v>
@@ -16250,7 +17619,7 @@
       </c>
       <c r="C13" s="87">
         <f>'CPE Fact Sheet Backup'!K38*100</f>
-        <v>2.2999999999999998</v>
+        <v>2.8000000000000003</v>
       </c>
       <c r="D13">
         <v>12</v>
@@ -16264,156 +17633,156 @@
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5817A11A-F99B-4EDC-8993-96C5D7E525F6}">
   <sheetPr>
-    <tabColor rgb="FFC00000"/>
+    <tabColor rgb="FFFF0000"/>
   </sheetPr>
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="W39" sqref="W39"/>
+      <selection activeCell="A115" sqref="A115"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.109375" style="87"/>
+    <col min="1" max="1" width="28.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="87"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B1" s="87" t="s">
         <v>74</v>
       </c>
-      <c r="B1" s="87" t="s">
-        <v>77</v>
-      </c>
       <c r="C1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="str">
         <f>'CPE Fact Sheet Backup'!L27</f>
-        <v>DocuSign Inc</v>
+        <v>KLA Corp</v>
       </c>
       <c r="B2" s="87">
         <f>'CPE Fact Sheet Backup'!M27*100</f>
-        <v>7.438319157144277</v>
+        <v>5.4</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="str">
         <f>'CPE Fact Sheet Backup'!L28</f>
-        <v>Teradyne Inc</v>
+        <v>Apple Inc</v>
       </c>
       <c r="B3" s="87">
         <f>'CPE Fact Sheet Backup'!M28*100</f>
-        <v>6.5667900958130518</v>
+        <v>5.2</v>
       </c>
       <c r="C3">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="str">
         <f>'CPE Fact Sheet Backup'!L29</f>
-        <v>Apple Inc</v>
+        <v>Amazon.com Inc</v>
       </c>
       <c r="B4" s="87">
         <f>'CPE Fact Sheet Backup'!M29*100</f>
-        <v>5.6417088239491546</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="C4">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="str">
         <f>'CPE Fact Sheet Backup'!L30</f>
-        <v>Amazon.com Inc</v>
+        <v>Freeport-McMoRan Inc</v>
       </c>
       <c r="B5" s="87">
         <f>'CPE Fact Sheet Backup'!M30*100</f>
-        <v>5.1994913991952973</v>
+        <v>4.7</v>
       </c>
       <c r="C5">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="str">
         <f>'CPE Fact Sheet Backup'!L31</f>
         <v>UnitedHealth Group Inc</v>
       </c>
       <c r="B6" s="87">
         <f>'CPE Fact Sheet Backup'!M31*100</f>
-        <v>4.2977567904888971</v>
+        <v>4.5</v>
       </c>
       <c r="C6">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="str">
         <f>'CPE Fact Sheet Backup'!L32</f>
-        <v>KLA Corp</v>
+        <v>Target Corp</v>
       </c>
       <c r="B7" s="87">
         <f>'CPE Fact Sheet Backup'!M32*100</f>
-        <v>4.2098846265877397</v>
+        <v>4.3999999999999995</v>
       </c>
       <c r="C7">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="str">
         <f>'CPE Fact Sheet Backup'!L33</f>
-        <v>Netflix Inc</v>
+        <v>Pinterest Inc</v>
       </c>
       <c r="B8" s="87">
         <f>'CPE Fact Sheet Backup'!M33*100</f>
-        <v>4.1563536481616632</v>
+        <v>4.2</v>
       </c>
       <c r="C8">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="str">
         <f>'CPE Fact Sheet Backup'!L34</f>
-        <v>Target Corp</v>
+        <v>Infosys Ltd</v>
       </c>
       <c r="B9" s="87">
         <f>'CPE Fact Sheet Backup'!M34*100</f>
-        <v>3.8999257027258949</v>
+        <v>4.1000000000000005</v>
       </c>
       <c r="C9">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="str">
         <f>'CPE Fact Sheet Backup'!L35</f>
-        <v>Zendesk Inc</v>
+        <v>Builders FirstSource Inc</v>
       </c>
       <c r="B10" s="87">
         <f>'CPE Fact Sheet Backup'!M35*100</f>
-        <v>3.8157331435262414</v>
+        <v>3.9</v>
       </c>
       <c r="C10">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="str">
         <f>'CPE Fact Sheet Backup'!L36</f>
-        <v>Pinterest Inc</v>
+        <v>PACCAR Inc</v>
       </c>
       <c r="B11" s="87">
         <f>'CPE Fact Sheet Backup'!M36*100</f>
-        <v>3.7229235741783437</v>
+        <v>3.9</v>
       </c>
       <c r="C11">
         <v>10</v>
